--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/curvesim/research/star_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9065C37-32B8-40B0-941F-9D48DBE89851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{D9065C37-32B8-40B0-941F-9D48DBE89851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA0A7500-349A-46AB-9964-CE60E297BED9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
   <sheets>
     <sheet name="TOI 4504" sheetId="2" r:id="rId1"/>
+    <sheet name="Luminosity" sheetId="3" r:id="rId2"/>
+    <sheet name="Ark2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -193,13 +195,1892 @@
   </si>
   <si>
     <t>/ statt * mean_intensity in total_luminosity()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>total_luminosity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBF7DC1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>iteration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"""Add luminosity of all stars in the system while checking for eclipses.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    Does not yet work correctly for eclipsed eclipses (three or more bodies in line of sight at the same time)."""</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">luminosity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">star </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>stars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">luminosity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>luminosity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBF7DC1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">body </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># an object cannot eclipse itself :)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eclipsed_area</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eclipsed_by</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>body</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>iteration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eclipsed_area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">!= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">luminosity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">-= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">brightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eclipsed_area </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CurveSimPhysics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limbdarkening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relative_radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mean_intensity  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># debug</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                    # luminosity -= star.brightness * eclipsed_area * CurveSimPhysics.limbdarkening(relative_radius, star.limb_darkening) * star.mean_intensity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    # luminosity -= star.brightness * eclipsed_area * CurveSimPhysics.limbdarkening(relative_radius, star.limb_darkening) * CurveSimPhysics.mean_intensity(star.limb_darkening)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>luminosity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mean_intensity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CurveSimPhysics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mean_intensity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mean_intensity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening_coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"""Calculates the ratio of the mean intensity to the central intensity of a star based on the given coefficients."""</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">limb_darkening_coefficients </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>is None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>return None</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">intensity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9090D2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening_coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">intensity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">2.0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>intensity</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">brightness </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">luminosity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFBF7DC1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>self</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">area_2d  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># luminosity per (apparent) area [W/m**2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">def </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limbdarkening</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>relative_radius</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening_coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    Parameters:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    relative_radius (float): The normalized radial coordinate (0 &lt;= x &lt;= 1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    limb_darkening_parameters: list of coefficients for the limb darkening model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Returns:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    float: intensity relative to the intensity at the midlle of the star at the given relative radius.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># handling rounding errors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA9DC76"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sqrt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">relative_radius </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF707CFF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFAAAAAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t># mu = cos(theta), where theta is the angle from the center</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">intensity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9090D2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">mu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF3261"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF6188"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF6F6F6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC351DD"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9090D2"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFC9867"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>limb_darkening_coefficients</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFCFCFA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>brightness</t>
+  </si>
+  <si>
+    <t>TOI-4504</t>
+  </si>
+  <si>
+    <t>[0.4765, 0.3495]</t>
+  </si>
+  <si>
+    <t>limb_darkening</t>
+  </si>
+  <si>
+    <t>luminosity</t>
+  </si>
+  <si>
+    <t>0.7095</t>
+  </si>
+  <si>
+    <t>mean_intensity</t>
+  </si>
+  <si>
+    <t>area_2d</t>
+  </si>
+  <si>
+    <t>luminosity per area</t>
+  </si>
+  <si>
+    <t>mean intensity /central intensity  (based on the given coefficients</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+  </numFmts>
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +2111,107 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF6F6F6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC351DD"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFA9DC76"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFCFCFA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBF7DC1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF6188"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFC9867"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3261"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF707CFF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA9DC76"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9090D2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,7 +2226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -264,12 +2239,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -281,8 +2296,501 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Ellipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936F0679-7F62-C212-6A66-38DA3D787B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3261360" y="607740"/>
+          <a:ext cx="4175760" cy="4175760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF99"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>234426</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>23244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592566</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ellipse 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430AA7B8-1F2F-4DE4-895B-E92300C48B89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7549626" y="2412338"/>
+          <a:ext cx="358140" cy="359933"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>569640</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>173400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Ellipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B957DFAF-BB9A-4384-892E-17CF31A5A9DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7208520" y="3398520"/>
+          <a:ext cx="66720" cy="66720"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>531798</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>117438</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138054</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Lige pilforbindelse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8042F8EB-0605-0B67-E119-8421C027D6FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7237398" y="3446030"/>
+          <a:ext cx="2024040" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>535101</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>421339</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136737</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Lige pilforbindelse 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC5A443-9CD4-46B0-A82E-E6216E83FD02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7240701" y="2590802"/>
+          <a:ext cx="495838" cy="853911"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>132826</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34898</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>490966</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27278</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Ellipse 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABDAB402-200B-4532-860C-75C9A37C7E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3180826" y="400658"/>
+          <a:ext cx="358140" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>351266</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>141578</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>99806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133958</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Ellipse 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9AC564B-12BB-410A-91C4-E0D74E8F3348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5228066" y="2519018"/>
+          <a:ext cx="358140" cy="358140"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>162007</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>501409</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167737</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Bue 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{810AD241-E2F1-96D3-0295-ECCFEC1EC61C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10484268">
+          <a:off x="6258007" y="747360"/>
+          <a:ext cx="339402" cy="334777"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13326443"/>
+            <a:gd name="adj2" fmla="val 2282937"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,13 +3108,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="K1" s="4" t="s">
         <v>14</v>
@@ -624,7 +3132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -639,12 +3147,12 @@
         <v>1.5233337134996349E+18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -659,7 +3167,7 @@
         <v>1.6057013262380642E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,12 +3182,12 @@
         <v>127801893198931.94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -691,22 +3199,22 @@
         <v>1.289349655106091E+18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -736,12 +3244,12 @@
         <v>1.13125901945291</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -771,18 +3279,18 @@
         <v>1.1147406507828612</v>
       </c>
     </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M19">
         <v>99.918800000000005</v>
       </c>
     </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M20">
         <f>100-M19</f>
         <v>8.1199999999995498E-2</v>
       </c>
     </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
       <c r="M21">
         <f>M20*10000</f>
         <v>811.99999999995498</v>
@@ -791,4 +3299,1347 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E359EDAB-6C8B-452C-B771-172741AC8B82}">
+  <dimension ref="A1:AC49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="17">
+        <v>2.3745999999999999E+26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.28934965510609E+18</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="15">
+        <f>B45/B46</f>
+        <v>184170367.64201978</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A68F03C-1AFE-4DC0-92F4-427F68573854}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/curvesim/research/star_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{D9065C37-32B8-40B0-941F-9D48DBE89851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA0A7500-349A-46AB-9964-CE60E297BED9}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{D9065C37-32B8-40B0-941F-9D48DBE89851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD53358-EDA3-417E-AE70-27CC047E3DCC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -188,15 +188,9 @@
     <t>ppm</t>
   </si>
   <si>
-    <t>Uli ppm</t>
-  </si>
-  <si>
     <t>pi * r^2</t>
   </si>
   <si>
-    <t>/ statt * mean_intensity in total_luminosity()</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">def </t>
     </r>
@@ -1578,9 +1572,6 @@
     <t xml:space="preserve">    float: intensity relative to the intensity at the midlle of the star at the given relative radius.</t>
   </si>
   <si>
-    <t xml:space="preserve">    """</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">    </t>
     </r>
@@ -2049,28 +2040,40 @@
     <t>TOI-4504</t>
   </si>
   <si>
-    <t>[0.4765, 0.3495]</t>
-  </si>
-  <si>
     <t>limb_darkening</t>
   </si>
   <si>
     <t>luminosity</t>
   </si>
   <si>
-    <t>0.7095</t>
-  </si>
-  <si>
     <t>mean_intensity</t>
   </si>
   <si>
     <t>area_2d</t>
   </si>
   <si>
-    <t>luminosity per area</t>
-  </si>
-  <si>
     <t>mean intensity /central intensity  (based on the given coefficients</t>
+  </si>
+  <si>
+    <t>[0.4765, 0.3495, 0.174]</t>
+  </si>
+  <si>
+    <t>mean brightness  (luminosity per area)</t>
+  </si>
+  <si>
+    <t>brightness at center</t>
+  </si>
+  <si>
+    <t>Uli [0.4765, 0.3495]</t>
+  </si>
+  <si>
+    <t>Uli [0.4765, 0.3495, 0.174]</t>
+  </si>
+  <si>
+    <t>total luminosity</t>
+  </si>
+  <si>
+    <t>total area</t>
   </si>
 </sst>
 </file>
@@ -2078,7 +2081,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2226,7 +2229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2264,7 +2267,7 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2274,6 +2277,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3109,10 +3113,14 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -3120,16 +3128,16 @@
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="O1" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,14 +3238,14 @@
         <v>717.78433235625619</v>
       </c>
       <c r="N11" s="5">
-        <v>409</v>
+        <v>859</v>
       </c>
       <c r="O11">
         <v>812</v>
       </c>
       <c r="P11">
         <f>N11/M11</f>
-        <v>0.56980903812344852</v>
+        <v>1.196738297672475</v>
       </c>
       <c r="Q11">
         <f>O11/M11</f>
@@ -3265,35 +3273,46 @@
         <v>12198.353034358604</v>
       </c>
       <c r="N13">
-        <v>6845</v>
+        <v>14270.000000000067</v>
       </c>
       <c r="O13">
         <v>13598</v>
       </c>
       <c r="P13">
         <f>N13/M13</f>
-        <v>0.56114132626920754</v>
+        <v>1.1698300549103915</v>
       </c>
       <c r="Q13">
         <f>O13/M13</f>
         <v>1.1147406507828612</v>
       </c>
     </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M19">
-        <v>99.918800000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M20">
-        <f>100-M19</f>
-        <v>8.1199999999995498E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
-      <c r="M21">
-        <f>M20*10000</f>
-        <v>811.99999999995498</v>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>98.572999999999993</v>
+      </c>
+      <c r="O19">
+        <v>99.914100000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <f>100-N19</f>
+        <v>1.4270000000000067</v>
+      </c>
+      <c r="O20">
+        <f>100-O19</f>
+        <v>8.5899999999995202E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="14:15" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <f>N20*10000</f>
+        <v>14270.000000000067</v>
+      </c>
+      <c r="O21">
+        <f>O20*10000</f>
+        <v>858.99999999995202</v>
       </c>
     </row>
   </sheetData>
@@ -3303,22 +3322,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E359EDAB-6C8B-452C-B771-172741AC8B82}">
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3351,7 +3370,7 @@
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3384,7 +3403,7 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3417,7 +3436,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3450,7 +3469,7 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3483,7 +3502,7 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3516,7 +3535,7 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3549,7 +3568,7 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3582,7 +3601,7 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3615,7 +3634,7 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3648,7 +3667,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3681,7 +3700,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3714,7 +3733,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3747,7 +3766,7 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3780,7 +3799,7 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3813,7 +3832,7 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3846,7 +3865,7 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3878,8 +3897,8 @@
       <c r="AC20" s="7"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>51</v>
+      <c r="A21" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3911,8 +3930,8 @@
       <c r="AC21" s="7"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>52</v>
+      <c r="A22" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3944,8 +3963,8 @@
       <c r="AC22" s="7"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>53</v>
+      <c r="A23" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3977,8 +3996,8 @@
       <c r="AC23" s="7"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>54</v>
+      <c r="A24" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4010,8 +4029,8 @@
       <c r="AC24" s="7"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>55</v>
+      <c r="A25" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4043,8 +4062,8 @@
       <c r="AC25" s="7"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
-        <v>56</v>
+      <c r="A26" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4075,42 +4094,42 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>20</v>
+      <c r="A29" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4142,8 +4161,8 @@
       <c r="AC29" s="7"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>21</v>
+      <c r="A30" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4176,7 +4195,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -4208,8 +4227,8 @@
       <c r="AC31" s="7"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>23</v>
+      <c r="A32" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4241,8 +4260,8 @@
       <c r="AC32" s="7"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>24</v>
+      <c r="A33" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4274,8 +4293,8 @@
       <c r="AC33" s="7"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>25</v>
+      <c r="A34" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4307,8 +4326,8 @@
       <c r="AC34" s="7"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>26</v>
+      <c r="A35" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4340,8 +4359,8 @@
       <c r="AC35" s="7"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>27</v>
+      <c r="A36" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4373,8 +4392,8 @@
       <c r="AC36" s="7"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>28</v>
+      <c r="A37" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -4406,8 +4425,8 @@
       <c r="AC37" s="7"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="13" t="s">
-        <v>29</v>
+      <c r="A38" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -4439,8 +4458,8 @@
       <c r="AC38" s="7"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>30</v>
+      <c r="A39" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4473,7 +4492,7 @@
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4506,7 +4525,7 @@
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4537,95 +4556,88 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="7"/>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="s">
-        <v>58</v>
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="17">
+        <v>2.3745999999999999E+26</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="17">
-        <v>2.3745999999999999E+26</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.28934965510609E+18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1.28934965510609E+18</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="F46" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B46" s="15">
+        <f>B44/B45</f>
+        <v>184170367.64201978</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="15">
-        <f>B45/B46</f>
-        <v>184170367.64201978</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
+        <v>56</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47">
+        <v>0.47649999999999998</v>
+      </c>
+      <c r="H47">
+        <v>0.34949999999999998</v>
+      </c>
+      <c r="I47">
+        <f>1-G47-H47</f>
+        <v>0.1740000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="16">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="C48" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
+      <c r="B50" s="19">
+        <f>B46/B48</f>
+        <v>231224567.03329539</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/curvesim/research/star_systems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{D9065C37-32B8-40B0-941F-9D48DBE89851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD53358-EDA3-417E-AE70-27CC047E3DCC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D8E315-36A8-4910-BB2B-A66BE2E78D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
   <sheets>
     <sheet name="TOI 4504" sheetId="2" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>radius = 0.9897 * r_jup</t>
   </si>
   <si>
-    <t>ppm</t>
-  </si>
-  <si>
     <t>pi * r^2</t>
   </si>
   <si>
@@ -2074,6 +2071,9 @@
   </si>
   <si>
     <t>total area</t>
+  </si>
+  <si>
+    <t>area ppm</t>
   </si>
 </sst>
 </file>
@@ -2280,7 +2280,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2304,13 +2304,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>59100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>121920</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>28620</xdr:rowOff>
@@ -2369,13 +2369,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>234426</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>23244</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>592566</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15624</xdr:rowOff>
@@ -2395,14 +2395,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7549626" y="2412338"/>
-          <a:ext cx="358140" cy="359933"/>
+          <a:off x="2672826" y="1771650"/>
+          <a:ext cx="358140" cy="339474"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FF0000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -2434,13 +2437,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>502920</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>569640</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>173400</xdr:rowOff>
@@ -2499,13 +2502,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>531798</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>138054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>117438</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>138054</xdr:rowOff>
@@ -2552,13 +2555,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>535101</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>17931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>421339</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>136737</xdr:rowOff>
@@ -2605,13 +2608,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>132826</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>34898</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>490966</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>27278</xdr:rowOff>
@@ -2668,13 +2671,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>351266</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>141578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>99806</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>133958</xdr:rowOff>
@@ -2731,13 +2734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>162007</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>501409</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>167737</xdr:rowOff>
@@ -2790,11 +2793,124 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>362766</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57770</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC43172A-4472-1B69-AF04-20F8FB7E4A99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="0"/>
+          <a:ext cx="5849166" cy="4439270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132826</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12037</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Ellipse 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90491D21-83B5-46CC-92C9-6981A0E304E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742426" y="1209675"/>
+          <a:ext cx="3115199" cy="3183862"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="da-DK" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3110,37 +3226,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="K1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="N1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3155,12 +3271,12 @@
         <v>1.5233337134996349E+18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -3175,7 +3291,7 @@
         <v>1.6057013262380642E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3190,12 +3306,12 @@
         <v>127801893198931.94</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3207,22 +3323,22 @@
         <v>1.289349655106091E+18</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3243,21 +3359,13 @@
       <c r="O11">
         <v>812</v>
       </c>
-      <c r="P11">
-        <f>N11/M11</f>
-        <v>1.196738297672475</v>
-      </c>
-      <c r="Q11">
-        <f>O11/M11</f>
-        <v>1.13125901945291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -3278,16 +3386,8 @@
       <c r="O13">
         <v>13598</v>
       </c>
-      <c r="P13">
-        <f>N13/M13</f>
-        <v>1.1698300549103915</v>
-      </c>
-      <c r="Q13">
-        <f>O13/M13</f>
-        <v>1.1147406507828612</v>
-      </c>
-    </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N19">
         <v>98.572999999999993</v>
       </c>
@@ -3295,7 +3395,7 @@
         <v>99.914100000000005</v>
       </c>
     </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N20">
         <f>100-N19</f>
         <v>1.4270000000000067</v>
@@ -3305,7 +3405,7 @@
         <v>8.5899999999995202E-2</v>
       </c>
     </row>
-    <row r="21" spans="14:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
       <c r="N21">
         <f>N20*10000</f>
         <v>14270.000000000067</v>
@@ -3324,20 +3424,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E359EDAB-6C8B-452C-B771-172741AC8B82}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -3368,9 +3468,9 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -3401,9 +3501,9 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -3434,9 +3534,9 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3467,9 +3567,9 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -3500,9 +3600,9 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -3533,9 +3633,9 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -3566,9 +3666,9 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -3599,9 +3699,9 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -3632,9 +3732,9 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -3665,9 +3765,9 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -3698,9 +3798,9 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -3731,9 +3831,9 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -3764,9 +3864,9 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3797,9 +3897,9 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3830,9 +3930,9 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -3863,9 +3963,9 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -3896,9 +3996,9 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -3929,9 +4029,9 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -3962,9 +4062,9 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3995,9 +4095,9 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -4028,9 +4128,9 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -4061,9 +4161,9 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -4094,9 +4194,9 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -4127,9 +4227,9 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -4160,9 +4260,9 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4193,9 +4293,9 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -4226,9 +4326,9 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -4259,9 +4359,9 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -4292,9 +4392,9 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -4325,9 +4425,9 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -4358,9 +4458,9 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -4391,9 +4491,9 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -4424,9 +4524,9 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -4457,9 +4557,9 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -4490,9 +4590,9 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -4523,9 +4623,9 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -4556,53 +4656,53 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="17">
         <v>2.3745999999999999E+26</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="3">
         <v>1.28934965510609E+18</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="15">
         <f>B44/B45</f>
         <v>184170367.64201978</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G47">
         <v>0.47649999999999998</v>
@@ -4615,20 +4715,20 @@
         <v>0.1740000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B48" s="16">
         <v>0.79649999999999999</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B50" s="19">
         <f>B46/B48</f>
@@ -4645,11 +4745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A68F03C-1AFE-4DC0-92F4-427F68573854}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D8E315-36A8-4910-BB2B-A66BE2E78D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80347970-C0E4-46C4-AAC8-FB743D815952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
   <sheets>
     <sheet name="TOI 4504" sheetId="2" r:id="rId1"/>
@@ -3228,8 +3228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4745,7 +4745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A68F03C-1AFE-4DC0-92F4-427F68573854}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80347970-C0E4-46C4-AAC8-FB743D815952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C37966-8715-4B88-B8EB-7DB88EDDCBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2074,14 +2074,50 @@
   </si>
   <si>
     <t>area ppm</t>
+  </si>
+  <si>
+    <t>P [days]</t>
+  </si>
+  <si>
+    <t>T0 [BJD]</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>start_date - T0</t>
+  </si>
+  <si>
+    <t>(start_date - T0) / P</t>
+  </si>
+  <si>
+    <t>T0 - 263* P</t>
+  </si>
+  <si>
+    <t>first transit in simulation</t>
+  </si>
+  <si>
+    <t>Given q1 and q2 and the relative_radius r (the normalized radial coordinate (0 &lt;= r &lt;= 1), what is the formula for the limb darkening?</t>
+  </si>
+  <si>
+    <t>What do the parameters q1 and q2 (no units given) describe in the context of exoplanets?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+the english wikipedia article on limb darkening uses parameters a0, a1, a2 or alternatively A1 and A2. What is the relationship between these paramers and the parameters you mentioned (u1, u2 and q1, q2)?</t>
+  </si>
+  <si>
+    <t>You called u1, u2 the quadratic law parameters. Give me names for the 3 other parameter sets q1, q2 and a0, a1, a2 and A1, A2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2229,7 +2265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2278,6 +2314,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2301,6 +2343,187 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400967</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>96017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B25C84F-A280-0EE6-8781-0723DD4D7F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="7553325"/>
+          <a:ext cx="6573167" cy="5496692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>286654</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47723</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9CC761A-B11B-4F19-1600-0CFD140B4173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="6391275"/>
+          <a:ext cx="6477904" cy="704948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>48532</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>10468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Grafik 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A981E6EA-CE0F-19D3-B8FF-B852399628F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="13449300"/>
+          <a:ext cx="6496957" cy="6754168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>572355</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Grafik 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1AE8F4B-BBC9-CD62-1020-B90DCE65462D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="20764500"/>
+          <a:ext cx="6125430" cy="2324424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3226,14 +3449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3387,7 +3612,7 @@
         <v>13598</v>
       </c>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N19">
         <v>98.572999999999993</v>
       </c>
@@ -3395,7 +3620,7 @@
         <v>99.914100000000005</v>
       </c>
     </row>
-    <row r="20" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N20">
         <f>100-N19</f>
         <v>1.4270000000000067</v>
@@ -3405,7 +3630,7 @@
         <v>8.5899999999995202E-2</v>
       </c>
     </row>
-    <row r="21" spans="14:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N21">
         <f>N20*10000</f>
         <v>14270.000000000067</v>
@@ -3415,8 +3640,104 @@
         <v>858.99999999995202</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="20">
+        <v>2.4261400000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2459038.4580000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="21">
+        <v>2458400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="21">
+        <f>B26-B27</f>
+        <v>638.45800000010058</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="21">
+        <f>B28/B25</f>
+        <v>263.15793812397493</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="21">
+        <f>B26-B25*ROUNDDOWN(B29,0)</f>
+        <v>2458400.3831799999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C37966-8715-4B88-B8EB-7DB88EDDCBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48D535-D9FE-4C46-8430-AFAC080F4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2108,6 +2108,15 @@
   </si>
   <si>
     <t>You called u1, u2 the quadratic law parameters. Give me names for the 3 other parameter sets q1, q2 and a0, a1, a2 and A1, A2.</t>
+  </si>
+  <si>
+    <t>u1, u2 = A1, A2</t>
+  </si>
+  <si>
+    <t>a0,a1,a2 &lt;-  und  -&gt; u1,u2</t>
+  </si>
+  <si>
+    <t>q -&gt; u</t>
   </si>
 </sst>
 </file>
@@ -2116,8 +2125,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -2314,10 +2323,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3449,10 +3458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="K112" sqref="K112"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,6 +3742,21 @@
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="18" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A48D535-D9FE-4C46-8430-AFAC080F4DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE158D5C-B750-4A2A-B862-D517B9BBA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2117,18 +2117,75 @@
   </si>
   <si>
     <t>q -&gt; u</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>min_optimiert</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazit: </t>
+  </si>
+  <si>
+    <t>Kleineres dt verbessert die Genauigkeit der Simulation der Planetenbewegungen.</t>
+  </si>
+  <si>
+    <t>Beim optimierten Minimum ist die Verbesserung stetig statt etwas zufaellig.</t>
+  </si>
+  <si>
+    <t>Das optimierte Minimum ist also offenbar tatsaechlich eine Verbesserung.</t>
+  </si>
+  <si>
+    <t>Fehler optimiert</t>
+  </si>
+  <si>
+    <t>Die Simulationsgenauigkeit wird auch bei absurd kleinen dt nicht erheblich besser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ich muss die Simulation verbessern. Vielleicht muessen die Iterationsschritte die </t>
+  </si>
+  <si>
+    <t>Ableitungen x', y' und z' der vorherigen Iterationen beruecksichtigen.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Berechnung TT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Sollwert 0,3830000. Mit und ohne genauer berechnetem Minimum zwischen Iterationsschritten.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2247,6 +2304,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2271,10 +2335,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2329,8 +2394,13 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2351,6 +2421,980 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10263648293963254"/>
+          <c:y val="3.532009648597486E-2"/>
+          <c:w val="0.85847462817147857"/>
+          <c:h val="0.66449801892267213"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TOI 4504'!$B$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TOI 4504'!$A$132:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TOI 4504'!$B$132:$B$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38333299999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38263900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38298599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38292799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.382963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.382961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8BB-4A6C-8660-8C3A7943020B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'TOI 4504'!$C$131</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min_optimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'TOI 4504'!$A$132:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'TOI 4504'!$C$132:$C$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38272699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38284400000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38292199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38294099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38295099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38295899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.382961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D8BB-4A6C-8660-8C3A7943020B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1934120575"/>
+        <c:axId val="1934118175"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1934120575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934118175"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1934118175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1934120575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -2362,7 +3406,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400967</xdr:colOff>
+      <xdr:colOff>115217</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>96017</xdr:rowOff>
     </xdr:to>
@@ -2406,7 +3450,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>286654</xdr:colOff>
+      <xdr:colOff>904</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>47723</xdr:rowOff>
     </xdr:to>
@@ -2449,8 +3493,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>48532</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>534307</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>10468</xdr:rowOff>
     </xdr:to>
@@ -2494,7 +3538,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>572355</xdr:colOff>
+      <xdr:colOff>286605</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>38424</xdr:rowOff>
     </xdr:to>
@@ -2527,6 +3571,42 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C360EF9A-D699-9D27-E99B-A3FEAB2105D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3458,16 +4538,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3757,6 +4839,166 @@
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="22">
+        <v>120</v>
+      </c>
+      <c r="B132" s="16">
+        <v>0.38333299999999998</v>
+      </c>
+      <c r="C132" s="16">
+        <v>0.38272699999999998</v>
+      </c>
+      <c r="D132" s="23">
+        <f>($F$132-C132)/$F$132</f>
+        <v>7.1279373368152274E-4</v>
+      </c>
+      <c r="F132">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="22">
+        <v>60</v>
+      </c>
+      <c r="B133" s="16">
+        <v>0.38263900000000001</v>
+      </c>
+      <c r="C133" s="16">
+        <v>0.38284400000000002</v>
+      </c>
+      <c r="D133" s="23">
+        <f>($F$132-C133)/$F$132</f>
+        <v>4.0731070496080802E-4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="22">
+        <v>20</v>
+      </c>
+      <c r="B134" s="16">
+        <v>0.38286999999999999</v>
+      </c>
+      <c r="C134" s="16">
+        <v>0.38292199999999998</v>
+      </c>
+      <c r="D134" s="23">
+        <f>($F$132-C134)/$F$132</f>
+        <v>2.0365535248047649E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="22">
+        <v>10</v>
+      </c>
+      <c r="B135" s="16">
+        <v>0.38298599999999999</v>
+      </c>
+      <c r="C135" s="16">
+        <v>0.38294099999999998</v>
+      </c>
+      <c r="D135" s="23">
+        <f>($F$132-C135)/$F$132</f>
+        <v>1.5404699738911552E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="16">
+        <v>5</v>
+      </c>
+      <c r="B136" s="16">
+        <v>0.38292799999999999</v>
+      </c>
+      <c r="C136" s="16">
+        <v>0.38295099999999999</v>
+      </c>
+      <c r="D136" s="23">
+        <f>($F$132-C136)/$F$132</f>
+        <v>1.2793733681467688E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="16">
+        <v>1</v>
+      </c>
+      <c r="B137" s="16">
+        <v>0.382963</v>
+      </c>
+      <c r="C137" s="16">
+        <v>0.38295899999999999</v>
+      </c>
+      <c r="D137" s="23">
+        <f>($F$132-C137)/$F$132</f>
+        <v>1.0704960835512597E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="B138" s="16">
+        <v>0.382961</v>
+      </c>
+      <c r="C138" s="16">
+        <v>0.382961</v>
+      </c>
+      <c r="D138" s="23">
+        <f>($F$132-C138)/$F$132</f>
+        <v>1.0182767624023824E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE158D5C-B750-4A2A-B862-D517B9BBA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481EAF8-63E0-4921-BDDC-BA7B803C24AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2174,18 +2174,37 @@
       <t>. Sollwert 0,3830000. Mit und ohne genauer berechnetem Minimum zwischen Iterationsschritten.</t>
     </r>
   </si>
+  <si>
+    <t>Ø</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>max Fehler +</t>
+  </si>
+  <si>
+    <t>max Fehler -</t>
+  </si>
+  <si>
+    <t>TT von Planet c</t>
+  </si>
+  <si>
+    <t>Loesung: Verlet Integration!!!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2311,6 +2330,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2339,7 +2366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2397,7 +2424,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -2839,7 +2872,899 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>P von Planet b: Abweichungen vom Mittelwert waehrend der Simulation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.6361694507032516E-2"/>
+                  <c:y val="-0.1856374346336479"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'TOI 4504'!$C$149:$C$207</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>3.2656334298941658E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2894508973984102E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0835446397905457E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0048631098900103E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4384090000247909E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.514792679685911E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8158503097623964E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1716155399268473E-6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.5341252300530357E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0016339397405147E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.0034813496857566E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4914791497975273E-6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6973014396757264E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.9771791098839344E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5532173499380804E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6836025099401581E-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0116380398156366E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0416503498109648E-6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9943781097708779E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0472382896995498E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.1748447096322536E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.3252685299785014E-6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8610194599603176E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4840742597135375E-6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.0752236499014316E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.6302766798264088E-6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3760103799760373E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.0351310900122996E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9394300796449215E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.2619081400397931E-6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2104754099401305E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7033854997132778E-6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9797708990293472E-7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.7993042978357039E-7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5845961800486918E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7010267299741884E-6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.1862610198915036E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.556011309668321E-6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0270110510024466E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0721801960045241E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.4598598696649105E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7911550396537734E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.3166309500186628E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.1615657497828806E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.500582389712406E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.5914015697241553E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9203836600427735E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1101177898082994E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4521231596352777E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3494372299582835E-6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8830850696538448E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.539442269939741E-6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.7545930096658537E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.0475091897014295E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.9478728996515997E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0881523779815439E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0217490789887762E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.7047824800224873E-6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.2970731799485407E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6EB-4AD5-AF2A-3B12205E2CBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="676869440"/>
+        <c:axId val="676860320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="676869440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676860320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676860320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="676869440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>P von Planet c</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'TOI 4504'!$B$218:$B$228</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>82.622222220059484</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.712499999906868</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.931944449897856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.193055550102144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.404166670050472</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.50833333004266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.511111109983176</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.434722229838371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.298611110076308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.126388890203089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.940277769695967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A54-4EFF-B983-41B25F81D9A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="871048880"/>
+        <c:axId val="871047440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="871048880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871047440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="871047440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="871048880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3395,6 +4320,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -3405,8 +5362,8 @@
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>115217</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>315242</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>96017</xdr:rowOff>
     </xdr:to>
@@ -3449,8 +5406,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>904</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200929</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>47723</xdr:rowOff>
     </xdr:to>
@@ -3493,8 +5450,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>534307</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>734332</xdr:colOff>
       <xdr:row>106</xdr:row>
       <xdr:rowOff>10468</xdr:rowOff>
     </xdr:to>
@@ -3537,8 +5494,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>286605</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>486630</xdr:colOff>
       <xdr:row>121</xdr:row>
       <xdr:rowOff>38424</xdr:rowOff>
     </xdr:to>
@@ -3604,6 +5561,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A27C9D8-2545-38F3-AA87-BF6C8DD56616}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>890587</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3600CC-11F3-B098-8788-4CD35686CCF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4538,16 +6567,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
-  <dimension ref="A1:O145"/>
+  <dimension ref="A1:O228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="6" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -4841,12 +6870,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="s">
         <v>84</v>
       </c>
@@ -4860,7 +6889,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>120</v>
       </c>
@@ -4871,14 +6900,14 @@
         <v>0.38272699999999998</v>
       </c>
       <c r="D132" s="23">
-        <f>($F$132-C132)/$F$132</f>
+        <f t="shared" ref="D132:D138" si="0">($F$132-C132)/$F$132</f>
         <v>7.1279373368152274E-4</v>
       </c>
       <c r="F132">
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>60</v>
       </c>
@@ -4889,11 +6918,11 @@
         <v>0.38284400000000002</v>
       </c>
       <c r="D133" s="23">
-        <f>($F$132-C133)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>4.0731070496080802E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>20</v>
       </c>
@@ -4904,11 +6933,11 @@
         <v>0.38292199999999998</v>
       </c>
       <c r="D134" s="23">
-        <f>($F$132-C134)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>2.0365535248047649E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="22">
         <v>10</v>
       </c>
@@ -4919,11 +6948,11 @@
         <v>0.38294099999999998</v>
       </c>
       <c r="D135" s="23">
-        <f>($F$132-C135)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>1.5404699738911552E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="16">
         <v>5</v>
       </c>
@@ -4934,11 +6963,11 @@
         <v>0.38295099999999999</v>
       </c>
       <c r="D136" s="23">
-        <f>($F$132-C136)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>1.2793733681467688E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="16">
         <v>1</v>
       </c>
@@ -4949,11 +6978,11 @@
         <v>0.38295899999999999</v>
       </c>
       <c r="D137" s="23">
-        <f>($F$132-C137)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>1.0704960835512597E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="22">
         <v>0.1</v>
       </c>
@@ -4964,11 +6993,11 @@
         <v>0.382961</v>
       </c>
       <c r="D138" s="23">
-        <f>($F$132-C138)/$F$132</f>
+        <f t="shared" si="0"/>
         <v>1.0182767624023824E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
         <v>85</v>
       </c>
@@ -4976,29 +7005,919 @@
         <v>86</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B144" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H144" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0.38275274869999998</v>
+      </c>
+      <c r="E147">
+        <f>F132-C147</f>
+        <v>2.4725130000002871E-4</v>
+      </c>
+      <c r="F147" s="23">
+        <f>E147/F132</f>
+        <v>6.455647519582995E-4</v>
+      </c>
+      <c r="I147">
+        <v>2.4261400000000002</v>
+      </c>
+      <c r="J147" s="23">
+        <f>1-I147/A149</f>
+        <v>1.46467459193107E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2.4622032656334301</v>
+      </c>
+      <c r="B149">
+        <f>A149-2.4622</f>
+        <v>3.2656334298941658E-6</v>
+      </c>
+      <c r="C149">
+        <v>3.2656334298941658E-6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2.4622009289450899</v>
+      </c>
+      <c r="B150">
+        <f t="shared" ref="B150:B207" si="1">A150-2.4622</f>
+        <v>9.2894508973984102E-7</v>
+      </c>
+      <c r="C150">
+        <v>9.2894508973984102E-7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2.46220108354464</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="1"/>
+        <v>1.0835446397905457E-6</v>
+      </c>
+      <c r="C151">
+        <v>1.0835446397905457E-6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2.4622030048631101</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="1"/>
+        <v>3.0048631098900103E-6</v>
+      </c>
+      <c r="C152">
+        <v>3.0048631098900103E-6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2.4622054384090002</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="1"/>
+        <v>5.4384090000247909E-6</v>
+      </c>
+      <c r="C153">
+        <v>5.4384090000247909E-6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.4622075147926799</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="1"/>
+        <v>7.514792679685911E-6</v>
+      </c>
+      <c r="C154">
+        <v>7.514792679685911E-6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2.4622088158503099</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="1"/>
+        <v>8.8158503097623964E-6</v>
+      </c>
+      <c r="C155">
+        <v>8.8158503097623964E-6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2.4622091716155401</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="1"/>
+        <v>9.1716155399268473E-6</v>
+      </c>
+      <c r="C156">
+        <v>9.1716155399268473E-6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2.4622085341252302</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="1"/>
+        <v>8.5341252300530357E-6</v>
+      </c>
+      <c r="C157">
+        <v>8.5341252300530357E-6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2.4622070016339399</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="1"/>
+        <v>7.0016339397405147E-6</v>
+      </c>
+      <c r="C158">
+        <v>7.0016339397405147E-6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2.4622050034813499</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="1"/>
+        <v>5.0034813496857566E-6</v>
+      </c>
+      <c r="C159">
+        <v>5.0034813496857566E-6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2.46220349147915</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="1"/>
+        <v>3.4914791497975273E-6</v>
+      </c>
+      <c r="C160">
+        <v>3.4914791497975273E-6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2.4622036973014398</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="1"/>
+        <v>3.6973014396757264E-6</v>
+      </c>
+      <c r="C161">
+        <v>3.6973014396757264E-6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2.4622059771791101</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="1"/>
+        <v>5.9771791098839344E-6</v>
+      </c>
+      <c r="C162">
+        <v>5.9771791098839344E-6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2.4622085532173501</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="1"/>
+        <v>8.5532173499380804E-6</v>
+      </c>
+      <c r="C163">
+        <v>8.5532173499380804E-6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2.4622086836025101</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="1"/>
+        <v>8.6836025099401581E-6</v>
+      </c>
+      <c r="C164">
+        <v>8.6836025099401581E-6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2.46220601163804</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="1"/>
+        <v>6.0116380398156366E-6</v>
+      </c>
+      <c r="C165">
+        <v>6.0116380398156366E-6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2.46220304165035</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="1"/>
+        <v>3.0416503498109648E-6</v>
+      </c>
+      <c r="C166">
+        <v>3.0416503498109648E-6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2.4622019943781099</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="1"/>
+        <v>1.9943781097708779E-6</v>
+      </c>
+      <c r="C167">
+        <v>1.9943781097708779E-6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2.4622030472382899</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="1"/>
+        <v>3.0472382896995498E-6</v>
+      </c>
+      <c r="C168">
+        <v>3.0472382896995498E-6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2.4622051748447098</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="1"/>
+        <v>5.1748447096322536E-6</v>
+      </c>
+      <c r="C169">
+        <v>5.1748447096322536E-6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2.4622073252685301</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="1"/>
+        <v>7.3252685299785014E-6</v>
+      </c>
+      <c r="C170">
+        <v>7.3252685299785014E-6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2.4622088610194601</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="1"/>
+        <v>8.8610194599603176E-6</v>
+      </c>
+      <c r="C171">
+        <v>8.8610194599603176E-6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2.4622094840742599</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="1"/>
+        <v>9.4840742597135375E-6</v>
+      </c>
+      <c r="C172">
+        <v>9.4840742597135375E-6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2.4622090752236501</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="1"/>
+        <v>9.0752236499014316E-6</v>
+      </c>
+      <c r="C173">
+        <v>9.0752236499014316E-6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2.46220763027668</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="1"/>
+        <v>7.6302766798264088E-6</v>
+      </c>
+      <c r="C174">
+        <v>7.6302766798264088E-6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2.4622053760103801</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="1"/>
+        <v>5.3760103799760373E-6</v>
+      </c>
+      <c r="C175">
+        <v>5.3760103799760373E-6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2.4622030351310902</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="1"/>
+        <v>3.0351310900122996E-6</v>
+      </c>
+      <c r="C176">
+        <v>3.0351310900122996E-6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2.4622019394300798</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="1"/>
+        <v>1.9394300796449215E-6</v>
+      </c>
+      <c r="C177">
+        <v>1.9394300796449215E-6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2.4622032619081402</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="1"/>
+        <v>3.2619081400397931E-6</v>
+      </c>
+      <c r="C178">
+        <v>3.2619081400397931E-6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2.4622062104754101</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="1"/>
+        <v>6.2104754099401305E-6</v>
+      </c>
+      <c r="C179">
+        <v>6.2104754099401305E-6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2.4622077033854999</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="1"/>
+        <v>7.7033854997132778E-6</v>
+      </c>
+      <c r="C180">
+        <v>7.7033854997132778E-6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2.4622006979770901</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="1"/>
+        <v>6.9797708990293472E-7</v>
+      </c>
+      <c r="C181">
+        <v>6.9797708990293472E-7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2.4622003799304299</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="1"/>
+        <v>3.7993042978357039E-7</v>
+      </c>
+      <c r="C182">
+        <v>3.7993042978357039E-7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2.4622015845961802</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="1"/>
+        <v>1.5845961800486918E-6</v>
+      </c>
+      <c r="C183">
+        <v>1.5845961800486918E-6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2.4622037010267301</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="1"/>
+        <v>3.7010267299741884E-6</v>
+      </c>
+      <c r="C184">
+        <v>3.7010267299741884E-6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2.4622061862610201</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="1"/>
+        <v>6.1862610198915036E-6</v>
+      </c>
+      <c r="C185">
+        <v>6.1862610198915036E-6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2.4622085560113098</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="1"/>
+        <v>8.556011309668321E-6</v>
+      </c>
+      <c r="C186">
+        <v>8.556011309668321E-6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2.4622102701105102</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="1"/>
+        <v>1.0270110510024466E-5</v>
+      </c>
+      <c r="C187">
+        <v>1.0270110510024466E-5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2.4622107218019602</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="1"/>
+        <v>1.0721801960045241E-5</v>
+      </c>
+      <c r="C188">
+        <v>1.0721801960045241E-5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2.4622094598598698</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="1"/>
+        <v>9.4598598696649105E-6</v>
+      </c>
+      <c r="C189">
+        <v>9.4598598696649105E-6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2.4622067911550398</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="1"/>
+        <v>6.7911550396537734E-6</v>
+      </c>
+      <c r="C190">
+        <v>6.7911550396537734E-6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2.4622043166309502</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="1"/>
+        <v>4.3166309500186628E-6</v>
+      </c>
+      <c r="C191">
+        <v>4.3166309500186628E-6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2.4622041615657499</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="1"/>
+        <v>4.1615657497828806E-6</v>
+      </c>
+      <c r="C192">
+        <v>4.1615657497828806E-6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2.4622065005823899</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="1"/>
+        <v>6.500582389712406E-6</v>
+      </c>
+      <c r="C193">
+        <v>6.500582389712406E-6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2.4622085914015699</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="1"/>
+        <v>8.5914015697241553E-6</v>
+      </c>
+      <c r="C194">
+        <v>8.5914015697241553E-6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2.4622079203836602</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="1"/>
+        <v>7.9203836600427735E-6</v>
+      </c>
+      <c r="C195">
+        <v>7.9203836600427735E-6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2.46220511011779</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="1"/>
+        <v>5.1101177898082994E-6</v>
+      </c>
+      <c r="C196">
+        <v>5.1101177898082994E-6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2.4622024521231598</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="1"/>
+        <v>2.4521231596352777E-6</v>
+      </c>
+      <c r="C197">
+        <v>2.4521231596352777E-6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2.4622013494372301</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="1"/>
+        <v>1.3494372299582835E-6</v>
+      </c>
+      <c r="C198">
+        <v>1.3494372299582835E-6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2.4622018830850698</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="1"/>
+        <v>1.8830850696538448E-6</v>
+      </c>
+      <c r="C199">
+        <v>1.8830850696538448E-6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2.4622035394422701</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="1"/>
+        <v>3.539442269939741E-6</v>
+      </c>
+      <c r="C200">
+        <v>3.539442269939741E-6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2.4622057545930098</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="1"/>
+        <v>5.7545930096658537E-6</v>
+      </c>
+      <c r="C201">
+        <v>5.7545930096658537E-6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2.4622080475091899</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="1"/>
+        <v>8.0475091897014295E-6</v>
+      </c>
+      <c r="C202">
+        <v>8.0475091897014295E-6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2.4622099478728998</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="1"/>
+        <v>9.9478728996515997E-6</v>
+      </c>
+      <c r="C203">
+        <v>9.9478728996515997E-6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2.46221088152378</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="1"/>
+        <v>1.0881523779815439E-5</v>
+      </c>
+      <c r="C204">
+        <v>1.0881523779815439E-5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2.4622102174907901</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="1"/>
+        <v>1.0217490789887762E-5</v>
+      </c>
+      <c r="C205">
+        <v>1.0217490789887762E-5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2.4622077047824802</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="1"/>
+        <v>7.7047824800224873E-6</v>
+      </c>
+      <c r="C206">
+        <v>7.7047824800224873E-6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2.4622042970731801</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="1"/>
+        <v>4.2970731799485407E-6</v>
+      </c>
+      <c r="C207">
+        <v>4.2970731799485407E-6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B208" s="24">
+        <f>AVERAGE($B$149:$B$207)</f>
+        <v>5.7688469806863088E-6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B209" s="24">
+        <f>MAX($B$149:$B$207)</f>
+        <v>1.0881523779815439E-5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B210" s="24">
+        <f>MIN($B$149:$B$207)</f>
+        <v>3.7993042978357039E-7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B211" s="24">
+        <f>B209-B208</f>
+        <v>5.1126767991291297E-6</v>
+      </c>
+      <c r="C211" s="23">
+        <f>B211/A207</f>
+        <v>2.076463275288149E-6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B212" s="24">
+        <f>B211-B210</f>
+        <v>4.7327463693455594E-6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B216" s="25"/>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2458401.40555555</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2458484.0277777701</v>
+      </c>
+      <c r="B218" s="26">
+        <f>A218-A217</f>
+        <v>82.622222220059484</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2458566.74027777</v>
+      </c>
+      <c r="B219" s="26">
+        <f t="shared" ref="B219:B228" si="2">A219-A218</f>
+        <v>82.712499999906868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2458649.6722222199</v>
+      </c>
+      <c r="B220" s="26">
+        <f t="shared" si="2"/>
+        <v>82.931944449897856</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2458732.86527777</v>
+      </c>
+      <c r="B221" s="26">
+        <f t="shared" si="2"/>
+        <v>83.193055550102144</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2458816.26944444</v>
+      </c>
+      <c r="B222" s="26">
+        <f t="shared" si="2"/>
+        <v>83.404166670050472</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2458899.7777777701</v>
+      </c>
+      <c r="B223" s="26">
+        <f t="shared" si="2"/>
+        <v>83.50833333004266</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2458983.2888888801</v>
+      </c>
+      <c r="B224" s="26">
+        <f t="shared" si="2"/>
+        <v>83.511111109983176</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2459066.7236111099</v>
+      </c>
+      <c r="B225" s="26">
+        <f t="shared" si="2"/>
+        <v>83.434722229838371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2459150.02222222</v>
+      </c>
+      <c r="B226" s="26">
+        <f t="shared" si="2"/>
+        <v>83.298611110076308</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2459233.1486111102</v>
+      </c>
+      <c r="B227" s="26">
+        <f t="shared" si="2"/>
+        <v>83.126388890203089</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2459316.0888888799</v>
+      </c>
+      <c r="B228" s="26">
+        <f t="shared" si="2"/>
+        <v>82.940277769695967</v>
       </c>
     </row>
   </sheetData>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481EAF8-63E0-4921-BDDC-BA7B803C24AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A721C-7533-404B-985B-974CCA5621D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
   <sheets>
     <sheet name="TOI 4504" sheetId="2" r:id="rId1"/>
-    <sheet name="Luminosity" sheetId="3" r:id="rId2"/>
-    <sheet name="Ark2" sheetId="4" r:id="rId3"/>
+    <sheet name="Planet c" sheetId="5" r:id="rId2"/>
+    <sheet name="Luminosity" sheetId="3" r:id="rId3"/>
+    <sheet name="Ark2" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Planet c'!$A$40:$B$713</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="118">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2192,6 +2196,60 @@
   <si>
     <t>Loesung: Verlet Integration!!!</t>
   </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Transits</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>transit_params</t>
+  </si>
+  <si>
+    <t>EclipsedBody</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
 </sst>
 </file>
 
@@ -2202,7 +2260,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
-    <numFmt numFmtId="179" formatCode="0.00000000"/>
+    <numFmt numFmtId="168" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2425,7 +2483,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3684,6 +3742,749 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planet c'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planet c'!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>0.43659568518123498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45424996553354902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.477755594582495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50163465076511005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.51754991263890304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52175763375461903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51812108121441403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51341353615017904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51338950942484796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52106483078074495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53616812999583796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55706488900031703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58129924857330495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.60660523882450201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.63120045187991902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65301923479652901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66952600455969702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67879165548237197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.68607558266753799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.69967970717342298</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.71323476060920699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72173326554115702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72463452168676601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.72455157175806095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72430348625964802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.72559259523284703</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72929932978108003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.736240430640002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.74739268624307897</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.763889899227845</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78593473835060801</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81138090220185299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.83534756619893302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.85217419882479295</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86072078158769305</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.87012547038594801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88954683552895697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF2E-4F57-B71E-514D268C7AED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1504412799"/>
+        <c:axId val="1504414719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1504412799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1504414719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1504414719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1504412799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planet c'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>P</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planet c'!$C$2:$C$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="1">
+                  <c:v>82.622685180045664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.712962970137596</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82.93055554991588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.19444445008412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83.402777769602835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.509259260259569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.513888889923692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>83.435185189824551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83.300925920251757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.129629630129784</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82.942129629664123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.777777780313045</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82.673611109610647</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>82.664351850282401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82.759259259793907</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>82.96064815018326</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.236111110076308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83.497685189824551</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83.620370369870216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>83.560185180045664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>83.368055560160428</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>83.115740740206093</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>82.875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>82.692129629664123</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>82.594907409977168</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>82.581018510274589</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>82.662037039641291</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>82.821759260259569</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>83.041666669771075</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>83.280092590022832</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>83.486111110076308</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>83.597222220152617</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>83.576388889923692</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>83.402777779847383</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83.129629630129784</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>82.847222220152617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DCE2-49A9-B1C7-88EAFDBEB077}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1498935295"/>
+        <c:axId val="2034349823"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1498935295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2034349823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2034349823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1498935295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3765,6 +4566,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5352,6 +6233,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5642,6 +7555,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582AD5AC-AC0A-3694-CC42-4393D21325FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2789C61-3F25-6539-EBA5-C1BE03C4345D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6569,7 +8559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C734D42E-A664-47EC-9C8A-1146EAD8C69E}">
   <dimension ref="A1:O228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+    <sheetView topLeftCell="A213" workbookViewId="0">
       <selection activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
@@ -7927,6 +9917,5467 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297EEAD8-1435-4033-9511-E3E1B196AAA2}">
+  <dimension ref="A1:C713"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2458401.40509259</v>
+      </c>
+      <c r="B2">
+        <v>0.43659568518123498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2458484.0277777701</v>
+      </c>
+      <c r="B3">
+        <v>0.45424996553354902</v>
+      </c>
+      <c r="C3">
+        <f>A3-A2</f>
+        <v>82.622685180045664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2458566.7407407402</v>
+      </c>
+      <c r="B4">
+        <v>0.477755594582495</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C38" si="0">A4-A3</f>
+        <v>82.712962970137596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2458649.6712962901</v>
+      </c>
+      <c r="B5">
+        <v>0.50163465076511005</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>82.93055554991588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2458732.8657407402</v>
+      </c>
+      <c r="B6">
+        <v>0.51754991263890304</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>83.19444445008412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2458816.2685185098</v>
+      </c>
+      <c r="B7">
+        <v>0.52175763375461903</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>83.402777769602835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2458899.7777777701</v>
+      </c>
+      <c r="B8">
+        <v>0.51812108121441403</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>83.509259260259569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2458983.29166666</v>
+      </c>
+      <c r="B9">
+        <v>0.51341353615017904</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>83.513888889923692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2459066.7268518498</v>
+      </c>
+      <c r="B10">
+        <v>0.51338950942484796</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>83.435185189824551</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2459150.0277777701</v>
+      </c>
+      <c r="B11">
+        <v>0.52106483078074495</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>83.300925920251757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2459233.1574074002</v>
+      </c>
+      <c r="B12">
+        <v>0.53616812999583796</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>83.129629630129784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2459316.0995370299</v>
+      </c>
+      <c r="B13">
+        <v>0.55706488900031703</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>82.942129629664123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2459398.8773148102</v>
+      </c>
+      <c r="B14">
+        <v>0.58129924857330495</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>82.777777780313045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2459481.5509259198</v>
+      </c>
+      <c r="B15">
+        <v>0.60660523882450201</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>82.673611109610647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2459564.2152777701</v>
+      </c>
+      <c r="B16">
+        <v>0.63120045187991902</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>82.664351850282401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2459646.9745370299</v>
+      </c>
+      <c r="B17">
+        <v>0.65301923479652901</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>82.759259259793907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2459729.93518518</v>
+      </c>
+      <c r="B18">
+        <v>0.66952600455969702</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>82.96064815018326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2459813.1712962901</v>
+      </c>
+      <c r="B19">
+        <v>0.67879165548237197</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>83.236111110076308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2459896.6689814799</v>
+      </c>
+      <c r="B20">
+        <v>0.68607558266753799</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>83.497685189824551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2459980.2893518498</v>
+      </c>
+      <c r="B21">
+        <v>0.69967970717342298</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>83.620370369870216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2460063.8495370299</v>
+      </c>
+      <c r="B22">
+        <v>0.71323476060920699</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>83.560185180045664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2460147.21759259</v>
+      </c>
+      <c r="B23">
+        <v>0.72173326554115702</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>83.368055560160428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2460230.3333333302</v>
+      </c>
+      <c r="B24">
+        <v>0.72463452168676601</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>83.115740740206093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2460313.2083333302</v>
+      </c>
+      <c r="B25">
+        <v>0.72455157175806095</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>82.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2460395.9004629599</v>
+      </c>
+      <c r="B26">
+        <v>0.72430348625964802</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>82.692129629664123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2460478.4953703699</v>
+      </c>
+      <c r="B27">
+        <v>0.72559259523284703</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>82.594907409977168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2460561.0763888801</v>
+      </c>
+      <c r="B28">
+        <v>0.72929932978108003</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>82.581018510274589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2460643.7384259198</v>
+      </c>
+      <c r="B29">
+        <v>0.736240430640002</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>82.662037039641291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2460726.56018518</v>
+      </c>
+      <c r="B30">
+        <v>0.74739268624307897</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>82.821759260259569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2460809.6018518498</v>
+      </c>
+      <c r="B31">
+        <v>0.763889899227845</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>83.041666669771075</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2460892.8819444398</v>
+      </c>
+      <c r="B32">
+        <v>0.78593473835060801</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>83.280092590022832</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2460976.3680555499</v>
+      </c>
+      <c r="B33">
+        <v>0.81138090220185299</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>83.486111110076308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2461059.9652777701</v>
+      </c>
+      <c r="B34">
+        <v>0.83534756619893302</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>83.597222220152617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2461143.54166666</v>
+      </c>
+      <c r="B35">
+        <v>0.85217419882479295</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>83.576388889923692</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2461226.9444444398</v>
+      </c>
+      <c r="B36">
+        <v>0.86072078158769305</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>83.402777779847383</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2461310.07407407</v>
+      </c>
+      <c r="B37">
+        <v>0.87012547038594801</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>83.129629630129784</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2461392.9212962901</v>
+      </c>
+      <c r="B38">
+        <v>0.88954683552895697</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>82.847222220152617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44">
+        <v>2458401.2523148102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>2458401.2893518498</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>2458401.40509259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47">
+        <v>2458401.5254629599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48">
+        <v>2458401.5625</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49">
+        <v>3.7037036847323103E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>0.236111111473292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51">
+        <v>3.7037036847323103E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52">
+        <v>0.31018518516793803</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>0.43659568518123498</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59">
+        <v>2458483.875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60">
+        <v>2458483.9143518498</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61">
+        <v>2458484.0277777701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62">
+        <v>2458484.1458333302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63">
+        <v>2458484.1828703699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B64">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B65">
+        <v>0.231481481809169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="B66">
+        <v>3.7037036847323103E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67">
+        <v>0.307870370335876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68">
+        <v>0.45424996553354902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>105</v>
+      </c>
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B74">
+        <v>2458566.5902777701</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>2458566.6296296199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76">
+        <v>2458566.7407407402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>2458566.8564814799</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78">
+        <v>2458566.8935185098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80">
+        <v>0.22685185167938399</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81">
+        <v>3.7037037312984397E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>0.303240740671753</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>0.477755594582495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B89">
+        <v>2458649.5231481399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90">
+        <v>2458649.5625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91">
+        <v>2458649.6712962901</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92">
+        <v>2458649.7847222202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93">
+        <v>2458649.82175925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95">
+        <v>0.22222222201526101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96">
+        <v>3.7037037312984397E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97">
+        <v>0.29861111100762999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98">
+        <v>0.50163465076511005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>2458732.71759259</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105">
+        <v>2458732.7569444398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106">
+        <v>2458732.8657407402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107">
+        <v>2458732.9745370299</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108">
+        <v>2458733.0138888801</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110">
+        <v>0.21759259235113801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>3.9351852145045899E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112">
+        <v>0.29629629617556902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113">
+        <v>0.51754991263890304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>105</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="B119">
+        <v>2458816.1203703699</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>107</v>
+      </c>
+      <c r="B120">
+        <v>2458816.1597222202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121">
+        <v>2458816.2685185098</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122">
+        <v>2458816.3796296199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>110</v>
+      </c>
+      <c r="B123">
+        <v>2458816.41666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>111</v>
+      </c>
+      <c r="B124">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125">
+        <v>0.21990740764886099</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>113</v>
+      </c>
+      <c r="B126">
+        <v>3.7037036847323103E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127">
+        <v>0.29629629617556902</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>115</v>
+      </c>
+      <c r="B128">
+        <v>0.52175763375461903</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>105</v>
+      </c>
+      <c r="B133" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>106</v>
+      </c>
+      <c r="B134">
+        <v>2458899.6296296199</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135">
+        <v>2458899.6689814799</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136">
+        <v>2458899.7777777701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137">
+        <v>2458899.8888888801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138">
+        <v>2458899.9282407402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140">
+        <v>0.21990740764886099</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142">
+        <v>0.29861111100762999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143">
+        <v>0.51812108121441403</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>104</v>
+      </c>
+      <c r="B147" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>105</v>
+      </c>
+      <c r="B148" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>106</v>
+      </c>
+      <c r="B149">
+        <v>2458983.1435185098</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>107</v>
+      </c>
+      <c r="B150">
+        <v>2458983.1805555499</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>108</v>
+      </c>
+      <c r="B151">
+        <v>2458983.29166666</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152">
+        <v>2458983.4027777701</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153">
+        <v>2458983.4421296199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <v>3.7037036847323103E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>112</v>
+      </c>
+      <c r="B155">
+        <v>0.22222222248092199</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>113</v>
+      </c>
+      <c r="B156">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>114</v>
+      </c>
+      <c r="B157">
+        <v>0.29861111100762999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>115</v>
+      </c>
+      <c r="B158">
+        <v>0.51341353615017904</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>104</v>
+      </c>
+      <c r="B162" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>105</v>
+      </c>
+      <c r="B163" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>106</v>
+      </c>
+      <c r="B164">
+        <v>2459066.5787037001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165">
+        <v>2459066.6180555499</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>108</v>
+      </c>
+      <c r="B166">
+        <v>2459066.7268518498</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>109</v>
+      </c>
+      <c r="B167">
+        <v>2459066.8379629599</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>110</v>
+      </c>
+      <c r="B168">
+        <v>2459066.8773148102</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B169">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>112</v>
+      </c>
+      <c r="B170">
+        <v>0.21990740764886099</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>113</v>
+      </c>
+      <c r="B171">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>114</v>
+      </c>
+      <c r="B172">
+        <v>0.29861111100762999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>115</v>
+      </c>
+      <c r="B173">
+        <v>0.51338950942484796</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>104</v>
+      </c>
+      <c r="B177" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>105</v>
+      </c>
+      <c r="B178" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>106</v>
+      </c>
+      <c r="B179">
+        <v>2459149.8819444398</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>107</v>
+      </c>
+      <c r="B180">
+        <v>2459149.9212962901</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>108</v>
+      </c>
+      <c r="B181">
+        <v>2459150.0277777701</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>109</v>
+      </c>
+      <c r="B182">
+        <v>2459150.1388888801</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>110</v>
+      </c>
+      <c r="B183">
+        <v>2459150.1782407402</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>111</v>
+      </c>
+      <c r="B184">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>112</v>
+      </c>
+      <c r="B185">
+        <v>0.21759259281679899</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>113</v>
+      </c>
+      <c r="B186">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>114</v>
+      </c>
+      <c r="B187">
+        <v>0.29629629617556902</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>115</v>
+      </c>
+      <c r="B188">
+        <v>0.52106483078074495</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>104</v>
+      </c>
+      <c r="B192" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>105</v>
+      </c>
+      <c r="B193" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>106</v>
+      </c>
+      <c r="B194">
+        <v>2459233.01157407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>107</v>
+      </c>
+      <c r="B195">
+        <v>2459233.0509259198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>108</v>
+      </c>
+      <c r="B196">
+        <v>2459233.1574074002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>109</v>
+      </c>
+      <c r="B197">
+        <v>2459233.2662037001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>110</v>
+      </c>
+      <c r="B198">
+        <v>2459233.3055555499</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>111</v>
+      </c>
+      <c r="B199">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>112</v>
+      </c>
+      <c r="B200">
+        <v>0.21527777798473799</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>113</v>
+      </c>
+      <c r="B201">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>114</v>
+      </c>
+      <c r="B202">
+        <v>0.29398148134350699</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>115</v>
+      </c>
+      <c r="B203">
+        <v>0.53616812999583796</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>104</v>
+      </c>
+      <c r="B207" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>105</v>
+      </c>
+      <c r="B208" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>106</v>
+      </c>
+      <c r="B209">
+        <v>2459315.9560185098</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>107</v>
+      </c>
+      <c r="B210">
+        <v>2459315.9953703699</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>108</v>
+      </c>
+      <c r="B211">
+        <v>2459316.0995370299</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>109</v>
+      </c>
+      <c r="B212">
+        <v>2459316.2037037001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>110</v>
+      </c>
+      <c r="B213">
+        <v>2459316.2453703699</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>111</v>
+      </c>
+      <c r="B214">
+        <v>3.9351851679384701E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>112</v>
+      </c>
+      <c r="B215">
+        <v>0.20833333348855301</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>113</v>
+      </c>
+      <c r="B216">
+        <v>4.1666666511446203E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>114</v>
+      </c>
+      <c r="B217">
+        <v>0.28935185167938399</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>115</v>
+      </c>
+      <c r="B218">
+        <v>0.55706488900031703</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>104</v>
+      </c>
+      <c r="B222" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>105</v>
+      </c>
+      <c r="B223" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>106</v>
+      </c>
+      <c r="B224">
+        <v>2459398.7361111101</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>107</v>
+      </c>
+      <c r="B225">
+        <v>2459398.7754629599</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>108</v>
+      </c>
+      <c r="B226">
+        <v>2459398.8773148102</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>109</v>
+      </c>
+      <c r="B227">
+        <v>2459398.97916666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>110</v>
+      </c>
+      <c r="B228">
+        <v>2459399.0208333302</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>111</v>
+      </c>
+      <c r="B229">
+        <v>3.9351852145045899E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>112</v>
+      </c>
+      <c r="B230">
+        <v>0.203703703358769</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>113</v>
+      </c>
+      <c r="B231">
+        <v>4.1666666977107497E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>114</v>
+      </c>
+      <c r="B232">
+        <v>0.28472222248092199</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>115</v>
+      </c>
+      <c r="B233">
+        <v>0.58129924857330495</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>104</v>
+      </c>
+      <c r="B237" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>105</v>
+      </c>
+      <c r="B238" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>106</v>
+      </c>
+      <c r="B239">
+        <v>2459481.4120370299</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>107</v>
+      </c>
+      <c r="B240">
+        <v>2459481.4537037001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>108</v>
+      </c>
+      <c r="B241">
+        <v>2459481.5509259198</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>109</v>
+      </c>
+      <c r="B242">
+        <v>2459481.6504629599</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>110</v>
+      </c>
+      <c r="B243">
+        <v>2459481.6921296199</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>111</v>
+      </c>
+      <c r="B244">
+        <v>4.1666666977107497E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>112</v>
+      </c>
+      <c r="B245">
+        <v>0.19675925932824601</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>113</v>
+      </c>
+      <c r="B246">
+        <v>4.1666666511446203E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>114</v>
+      </c>
+      <c r="B247">
+        <v>0.28009259281679899</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>115</v>
+      </c>
+      <c r="B248">
+        <v>0.60660523882450201</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>104</v>
+      </c>
+      <c r="B252" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>105</v>
+      </c>
+      <c r="B253" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>106</v>
+      </c>
+      <c r="B254">
+        <v>2459564.0787037001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>107</v>
+      </c>
+      <c r="B255">
+        <v>2459564.1203703699</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>108</v>
+      </c>
+      <c r="B256">
+        <v>2459564.2152777701</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>109</v>
+      </c>
+      <c r="B257">
+        <v>2459564.31018518</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>110</v>
+      </c>
+      <c r="B258">
+        <v>2459564.35416666</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>111</v>
+      </c>
+      <c r="B259">
+        <v>4.1666666511446203E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>112</v>
+      </c>
+      <c r="B260">
+        <v>0.189814814832061</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>113</v>
+      </c>
+      <c r="B261">
+        <v>4.3981481343507697E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>114</v>
+      </c>
+      <c r="B262">
+        <v>0.27546296268701498</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>115</v>
+      </c>
+      <c r="B263">
+        <v>0.63120045187991902</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>104</v>
+      </c>
+      <c r="B267" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>105</v>
+      </c>
+      <c r="B268" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>106</v>
+      </c>
+      <c r="B269">
+        <v>2459646.8402777701</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>107</v>
+      </c>
+      <c r="B270">
+        <v>2459646.88425925</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>108</v>
+      </c>
+      <c r="B271">
+        <v>2459646.9745370299</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>109</v>
+      </c>
+      <c r="B272">
+        <v>2459647.0671296199</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>110</v>
+      </c>
+      <c r="B273">
+        <v>2459647.1111111101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>111</v>
+      </c>
+      <c r="B274">
+        <v>4.3981481343507697E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>112</v>
+      </c>
+      <c r="B275">
+        <v>0.182870370335876</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>113</v>
+      </c>
+      <c r="B276">
+        <v>4.3981481343507697E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>114</v>
+      </c>
+      <c r="B277">
+        <v>0.27083333302289198</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>115</v>
+      </c>
+      <c r="B278">
+        <v>0.65301923479652901</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>104</v>
+      </c>
+      <c r="B282" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>105</v>
+      </c>
+      <c r="B283" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>106</v>
+      </c>
+      <c r="B284">
+        <v>2459729.8032407402</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>107</v>
+      </c>
+      <c r="B285">
+        <v>2459729.8495370299</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>108</v>
+      </c>
+      <c r="B286">
+        <v>2459729.93518518</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>109</v>
+      </c>
+      <c r="B287">
+        <v>2459730.0254629599</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>110</v>
+      </c>
+      <c r="B288">
+        <v>2459730.07175925</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>111</v>
+      </c>
+      <c r="B289">
+        <v>4.6296296175569199E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>112</v>
+      </c>
+      <c r="B290">
+        <v>0.175925926305353</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>113</v>
+      </c>
+      <c r="B291">
+        <v>4.6296296175569199E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>114</v>
+      </c>
+      <c r="B292">
+        <v>0.26851851865649201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>115</v>
+      </c>
+      <c r="B293">
+        <v>0.66952600455969702</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>104</v>
+      </c>
+      <c r="B297" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>105</v>
+      </c>
+      <c r="B298" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>106</v>
+      </c>
+      <c r="B299">
+        <v>2459813.0393518498</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>107</v>
+      </c>
+      <c r="B300">
+        <v>2459813.0856481399</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>108</v>
+      </c>
+      <c r="B301">
+        <v>2459813.1712962901</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>109</v>
+      </c>
+      <c r="B302">
+        <v>2459813.26157407</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>110</v>
+      </c>
+      <c r="B303">
+        <v>2459813.3078703699</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>111</v>
+      </c>
+      <c r="B304">
+        <v>4.62962966412305E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>112</v>
+      </c>
+      <c r="B305">
+        <v>0.17592592583969199</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>113</v>
+      </c>
+      <c r="B306">
+        <v>4.6296296175569199E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>114</v>
+      </c>
+      <c r="B307">
+        <v>0.26851851865649201</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>115</v>
+      </c>
+      <c r="B308">
+        <v>0.67879165548237197</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>104</v>
+      </c>
+      <c r="B312" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>105</v>
+      </c>
+      <c r="B313" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>106</v>
+      </c>
+      <c r="B314">
+        <v>2459896.5370370299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>107</v>
+      </c>
+      <c r="B315">
+        <v>2459896.5833333302</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>108</v>
+      </c>
+      <c r="B316">
+        <v>2459896.6689814799</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>109</v>
+      </c>
+      <c r="B317">
+        <v>2459896.7569444398</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>110</v>
+      </c>
+      <c r="B318">
+        <v>2459896.8032407402</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>111</v>
+      </c>
+      <c r="B319">
+        <v>4.62962966412305E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>112</v>
+      </c>
+      <c r="B320">
+        <v>0.17361111100762999</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>113</v>
+      </c>
+      <c r="B321">
+        <v>4.6296296175569199E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>114</v>
+      </c>
+      <c r="B322">
+        <v>0.26620370382442998</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>115</v>
+      </c>
+      <c r="B323">
+        <v>0.68607558266753799</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>104</v>
+      </c>
+      <c r="B327" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>105</v>
+      </c>
+      <c r="B328" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>106</v>
+      </c>
+      <c r="B329">
+        <v>2459980.1597222202</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>107</v>
+      </c>
+      <c r="B330">
+        <v>2459980.2060185098</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>108</v>
+      </c>
+      <c r="B331">
+        <v>2459980.2893518498</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>109</v>
+      </c>
+      <c r="B332">
+        <v>2459980.37268518</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>110</v>
+      </c>
+      <c r="B333">
+        <v>2459980.4212962901</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>111</v>
+      </c>
+      <c r="B334">
+        <v>4.62962966412305E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>112</v>
+      </c>
+      <c r="B335">
+        <v>0.16666666651144599</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>113</v>
+      </c>
+      <c r="B336">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>114</v>
+      </c>
+      <c r="B337">
+        <v>0.26157407416030698</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>115</v>
+      </c>
+      <c r="B338">
+        <v>0.69967970717342298</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>104</v>
+      </c>
+      <c r="B342" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>105</v>
+      </c>
+      <c r="B343" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>106</v>
+      </c>
+      <c r="B344">
+        <v>2460063.7222222202</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>107</v>
+      </c>
+      <c r="B345">
+        <v>2460063.7708333302</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>108</v>
+      </c>
+      <c r="B346">
+        <v>2460063.8495370299</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>109</v>
+      </c>
+      <c r="B347">
+        <v>2460063.9305555499</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>110</v>
+      </c>
+      <c r="B348">
+        <v>2460063.97916666</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>111</v>
+      </c>
+      <c r="B349">
+        <v>4.8611111473292098E-2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>112</v>
+      </c>
+      <c r="B350">
+        <v>0.15972222201526101</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>113</v>
+      </c>
+      <c r="B351">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>114</v>
+      </c>
+      <c r="B352">
+        <v>0.25694444449618398</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>115</v>
+      </c>
+      <c r="B353">
+        <v>0.71323476060920699</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>104</v>
+      </c>
+      <c r="B357" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>105</v>
+      </c>
+      <c r="B358" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>106</v>
+      </c>
+      <c r="B359">
+        <v>2460147.0902777701</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>107</v>
+      </c>
+      <c r="B360">
+        <v>2460147.1388888801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>108</v>
+      </c>
+      <c r="B361">
+        <v>2460147.21759259</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>109</v>
+      </c>
+      <c r="B362">
+        <v>2460147.2962962901</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>110</v>
+      </c>
+      <c r="B363">
+        <v>2460147.3472222202</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>111</v>
+      </c>
+      <c r="B364">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>112</v>
+      </c>
+      <c r="B365">
+        <v>0.15740740718320001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>113</v>
+      </c>
+      <c r="B366">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>114</v>
+      </c>
+      <c r="B367">
+        <v>0.25694444403052302</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>115</v>
+      </c>
+      <c r="B368">
+        <v>0.72173326554115702</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>104</v>
+      </c>
+      <c r="B372" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>105</v>
+      </c>
+      <c r="B373" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>106</v>
+      </c>
+      <c r="B374">
+        <v>2460230.2060185098</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>107</v>
+      </c>
+      <c r="B375">
+        <v>2460230.2569444398</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>108</v>
+      </c>
+      <c r="B376">
+        <v>2460230.3333333302</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>109</v>
+      </c>
+      <c r="B377">
+        <v>2460230.4120370299</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>110</v>
+      </c>
+      <c r="B378">
+        <v>2460230.4606481399</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>111</v>
+      </c>
+      <c r="B379">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>112</v>
+      </c>
+      <c r="B380">
+        <v>0.15509259235113801</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>113</v>
+      </c>
+      <c r="B381">
+        <v>4.8611111473292098E-2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>114</v>
+      </c>
+      <c r="B382">
+        <v>0.254629629664123</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>115</v>
+      </c>
+      <c r="B383">
+        <v>0.72463452168676601</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>104</v>
+      </c>
+      <c r="B387" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>105</v>
+      </c>
+      <c r="B388" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>106</v>
+      </c>
+      <c r="B389">
+        <v>2460313.0810185098</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>107</v>
+      </c>
+      <c r="B390">
+        <v>2460313.1319444398</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>108</v>
+      </c>
+      <c r="B391">
+        <v>2460313.2083333302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>109</v>
+      </c>
+      <c r="B392">
+        <v>2460313.2870370299</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>110</v>
+      </c>
+      <c r="B393">
+        <v>2460313.3356481399</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>111</v>
+      </c>
+      <c r="B394">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>112</v>
+      </c>
+      <c r="B395">
+        <v>0.15509259235113801</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>113</v>
+      </c>
+      <c r="B396">
+        <v>4.8611111473292098E-2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>114</v>
+      </c>
+      <c r="B397">
+        <v>0.254629629664123</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>115</v>
+      </c>
+      <c r="B398">
+        <v>0.72455157175806095</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>104</v>
+      </c>
+      <c r="B402" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>105</v>
+      </c>
+      <c r="B403" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>106</v>
+      </c>
+      <c r="B404">
+        <v>2460395.7754629599</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>107</v>
+      </c>
+      <c r="B405">
+        <v>2460395.82407407</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>108</v>
+      </c>
+      <c r="B406">
+        <v>2460395.9004629599</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>109</v>
+      </c>
+      <c r="B407">
+        <v>2460395.9814814799</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>110</v>
+      </c>
+      <c r="B408">
+        <v>2460396.03009259</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>111</v>
+      </c>
+      <c r="B409">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>112</v>
+      </c>
+      <c r="B410">
+        <v>0.15740740718320001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>113</v>
+      </c>
+      <c r="B411">
+        <v>4.8611111473292098E-2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>114</v>
+      </c>
+      <c r="B412">
+        <v>0.254629629664123</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>115</v>
+      </c>
+      <c r="B413">
+        <v>0.72430348625964802</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>104</v>
+      </c>
+      <c r="B417" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>105</v>
+      </c>
+      <c r="B418" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>106</v>
+      </c>
+      <c r="B419">
+        <v>2460478.3680555499</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>107</v>
+      </c>
+      <c r="B420">
+        <v>2460478.41666666</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>108</v>
+      </c>
+      <c r="B421">
+        <v>2460478.4953703699</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>109</v>
+      </c>
+      <c r="B422">
+        <v>2460478.57407407</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>110</v>
+      </c>
+      <c r="B423">
+        <v>2460478.62268518</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>111</v>
+      </c>
+      <c r="B424">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>112</v>
+      </c>
+      <c r="B425">
+        <v>0.15740740764886099</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>113</v>
+      </c>
+      <c r="B426">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>114</v>
+      </c>
+      <c r="B427">
+        <v>0.254629629664123</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>115</v>
+      </c>
+      <c r="B428">
+        <v>0.72559259523284703</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>104</v>
+      </c>
+      <c r="B432" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>105</v>
+      </c>
+      <c r="B433" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>106</v>
+      </c>
+      <c r="B434">
+        <v>2460560.9513888801</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>107</v>
+      </c>
+      <c r="B435">
+        <v>2460561</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>108</v>
+      </c>
+      <c r="B436">
+        <v>2460561.0763888801</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>109</v>
+      </c>
+      <c r="B437">
+        <v>2460561.15509259</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>110</v>
+      </c>
+      <c r="B438">
+        <v>2460561.2037037001</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>111</v>
+      </c>
+      <c r="B439">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>112</v>
+      </c>
+      <c r="B440">
+        <v>0.15509259281679899</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>113</v>
+      </c>
+      <c r="B441">
+        <v>4.8611111007630797E-2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>114</v>
+      </c>
+      <c r="B442">
+        <v>0.25231481483206097</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>115</v>
+      </c>
+      <c r="B443">
+        <v>0.72929932978108003</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>104</v>
+      </c>
+      <c r="B447" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>105</v>
+      </c>
+      <c r="B448" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>106</v>
+      </c>
+      <c r="B449">
+        <v>2460643.6134259198</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>107</v>
+      </c>
+      <c r="B450">
+        <v>2460643.6643518498</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>108</v>
+      </c>
+      <c r="B451">
+        <v>2460643.7384259198</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>109</v>
+      </c>
+      <c r="B452">
+        <v>2460643.8148148102</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>110</v>
+      </c>
+      <c r="B453">
+        <v>2460643.8657407402</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>111</v>
+      </c>
+      <c r="B454">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>112</v>
+      </c>
+      <c r="B455">
+        <v>0.15046296315267599</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>113</v>
+      </c>
+      <c r="B456">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>114</v>
+      </c>
+      <c r="B457">
+        <v>0.25231481483206097</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>115</v>
+      </c>
+      <c r="B458">
+        <v>0.736240430640002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>104</v>
+      </c>
+      <c r="B462" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>105</v>
+      </c>
+      <c r="B463" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>106</v>
+      </c>
+      <c r="B464">
+        <v>2460726.4375</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>107</v>
+      </c>
+      <c r="B465">
+        <v>2460726.4884259198</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>108</v>
+      </c>
+      <c r="B466">
+        <v>2460726.56018518</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>109</v>
+      </c>
+      <c r="B467">
+        <v>2460726.63425925</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>110</v>
+      </c>
+      <c r="B468">
+        <v>2460726.6875</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>111</v>
+      </c>
+      <c r="B469">
+        <v>5.0925925839692299E-2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>112</v>
+      </c>
+      <c r="B470">
+        <v>0.14583333348855301</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>113</v>
+      </c>
+      <c r="B471">
+        <v>5.32407406717538E-2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>114</v>
+      </c>
+      <c r="B472">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>115</v>
+      </c>
+      <c r="B473">
+        <v>0.74739268624307897</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>104</v>
+      </c>
+      <c r="B477" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>105</v>
+      </c>
+      <c r="B478" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>106</v>
+      </c>
+      <c r="B479">
+        <v>2460809.47916666</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>107</v>
+      </c>
+      <c r="B480">
+        <v>2460809.5347222202</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>108</v>
+      </c>
+      <c r="B481">
+        <v>2460809.6018518498</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>109</v>
+      </c>
+      <c r="B482">
+        <v>2460809.6736111101</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>110</v>
+      </c>
+      <c r="B483">
+        <v>2460809.7268518498</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>111</v>
+      </c>
+      <c r="B484">
+        <v>5.5555555503815399E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>112</v>
+      </c>
+      <c r="B485">
+        <v>0.13888888899236901</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>113</v>
+      </c>
+      <c r="B486">
+        <v>5.32407406717538E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>114</v>
+      </c>
+      <c r="B487">
+        <v>0.247685185167938</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>115</v>
+      </c>
+      <c r="B488">
+        <v>0.763889899227845</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>104</v>
+      </c>
+      <c r="B492" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>105</v>
+      </c>
+      <c r="B493" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>106</v>
+      </c>
+      <c r="B494">
+        <v>2460892.7638888801</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>107</v>
+      </c>
+      <c r="B495">
+        <v>2460892.8194444398</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>108</v>
+      </c>
+      <c r="B496">
+        <v>2460892.8819444398</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>109</v>
+      </c>
+      <c r="B497">
+        <v>2460892.94675925</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>110</v>
+      </c>
+      <c r="B498">
+        <v>2460893.0023148102</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>111</v>
+      </c>
+      <c r="B499">
+        <v>5.5555555503815399E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>112</v>
+      </c>
+      <c r="B500">
+        <v>0.127314814832061</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>113</v>
+      </c>
+      <c r="B501">
+        <v>5.5555555503815399E-2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>114</v>
+      </c>
+      <c r="B502">
+        <v>0.23842592583969199</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>115</v>
+      </c>
+      <c r="B503">
+        <v>0.78593473835060801</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>104</v>
+      </c>
+      <c r="B507" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>105</v>
+      </c>
+      <c r="B508" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>106</v>
+      </c>
+      <c r="B509">
+        <v>2460976.2523148102</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>107</v>
+      </c>
+      <c r="B510">
+        <v>2460976.3125</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>108</v>
+      </c>
+      <c r="B511">
+        <v>2460976.3680555499</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>109</v>
+      </c>
+      <c r="B512">
+        <v>2460976.4236111101</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>110</v>
+      </c>
+      <c r="B513">
+        <v>2460976.4837962901</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>111</v>
+      </c>
+      <c r="B514">
+        <v>6.0185185167938401E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>112</v>
+      </c>
+      <c r="B515">
+        <v>0.11111111100763001</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>113</v>
+      </c>
+      <c r="B516">
+        <v>6.0185185167938401E-2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>114</v>
+      </c>
+      <c r="B517">
+        <v>0.23148148134350699</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>115</v>
+      </c>
+      <c r="B518">
+        <v>0.81138090220185299</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>104</v>
+      </c>
+      <c r="B522" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>105</v>
+      </c>
+      <c r="B523" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>106</v>
+      </c>
+      <c r="B524">
+        <v>2461059.8564814799</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>107</v>
+      </c>
+      <c r="B525">
+        <v>2461059.9189814799</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>108</v>
+      </c>
+      <c r="B526">
+        <v>2461059.9652777701</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>109</v>
+      </c>
+      <c r="B527">
+        <v>2461060.0138888801</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>110</v>
+      </c>
+      <c r="B528">
+        <v>2461060.0787037001</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>111</v>
+      </c>
+      <c r="B529">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>112</v>
+      </c>
+      <c r="B530">
+        <v>9.4907407648861394E-2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>113</v>
+      </c>
+      <c r="B531">
+        <v>6.4814814832061501E-2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>114</v>
+      </c>
+      <c r="B532">
+        <v>0.22222222248092199</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>115</v>
+      </c>
+      <c r="B533">
+        <v>0.83534756619893302</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>104</v>
+      </c>
+      <c r="B537" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>105</v>
+      </c>
+      <c r="B538" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>106</v>
+      </c>
+      <c r="B539">
+        <v>2461143.4328703699</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>107</v>
+      </c>
+      <c r="B540">
+        <v>2461143.5023148102</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>108</v>
+      </c>
+      <c r="B541">
+        <v>2461143.54166666</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>109</v>
+      </c>
+      <c r="B542">
+        <v>2461143.5810185098</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>110</v>
+      </c>
+      <c r="B543">
+        <v>2461143.6504629599</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>111</v>
+      </c>
+      <c r="B544">
+        <v>6.9444444496184504E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>112</v>
+      </c>
+      <c r="B545">
+        <v>7.8703703824430704E-2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>113</v>
+      </c>
+      <c r="B546">
+        <v>6.9444444496184504E-2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>114</v>
+      </c>
+      <c r="B547">
+        <v>0.21759259281679899</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>115</v>
+      </c>
+      <c r="B548">
+        <v>0.85217419882479295</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>104</v>
+      </c>
+      <c r="B552" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>105</v>
+      </c>
+      <c r="B553" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>106</v>
+      </c>
+      <c r="B554">
+        <v>2461226.8402777701</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>107</v>
+      </c>
+      <c r="B555">
+        <v>2461226.9120370299</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>108</v>
+      </c>
+      <c r="B556">
+        <v>2461226.9444444398</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>109</v>
+      </c>
+      <c r="B557">
+        <v>2461226.9814814799</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>110</v>
+      </c>
+      <c r="B558">
+        <v>2461227.0532407402</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>111</v>
+      </c>
+      <c r="B559">
+        <v>7.1759258862584802E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>112</v>
+      </c>
+      <c r="B560">
+        <v>6.9444444496184504E-2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>113</v>
+      </c>
+      <c r="B561">
+        <v>7.1759259328246103E-2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>114</v>
+      </c>
+      <c r="B562">
+        <v>0.21296296268701501</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>115</v>
+      </c>
+      <c r="B563">
+        <v>0.86072078158769305</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>104</v>
+      </c>
+      <c r="B567" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>105</v>
+      </c>
+      <c r="B568" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>106</v>
+      </c>
+      <c r="B569">
+        <v>2461309.9699074002</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>107</v>
+      </c>
+      <c r="B570">
+        <v>2461310.0486111101</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>108</v>
+      </c>
+      <c r="B571">
+        <v>2461310.07407407</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>109</v>
+      </c>
+      <c r="B572">
+        <v>2461310.10416666</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>110</v>
+      </c>
+      <c r="B573">
+        <v>2461310.1805555499</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>111</v>
+      </c>
+      <c r="B574">
+        <v>7.8703703824430704E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>112</v>
+      </c>
+      <c r="B575">
+        <v>5.5555555503815399E-2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>113</v>
+      </c>
+      <c r="B576">
+        <v>7.6388888992369106E-2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>114</v>
+      </c>
+      <c r="B577">
+        <v>0.21064814832061499</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>115</v>
+      </c>
+      <c r="B578">
+        <v>0.87012547038594801</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>104</v>
+      </c>
+      <c r="B582" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>105</v>
+      </c>
+      <c r="B583" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>106</v>
+      </c>
+      <c r="B584">
+        <v>2461392.82175925</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>107</v>
+      </c>
+      <c r="B585">
+        <v>2461392.9212962901</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>108</v>
+      </c>
+      <c r="B586">
+        <v>2461392.9212962901</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>109</v>
+      </c>
+      <c r="B587">
+        <v>2461392.9236111101</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>110</v>
+      </c>
+      <c r="B588">
+        <v>2461393.0231481399</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>111</v>
+      </c>
+      <c r="B589">
+        <v>9.9537036847323096E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>112</v>
+      </c>
+      <c r="B590">
+        <v>2.3148148320615201E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>113</v>
+      </c>
+      <c r="B591">
+        <v>9.9537037312984397E-2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>114</v>
+      </c>
+      <c r="B592">
+        <v>0.20138888899236901</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>115</v>
+      </c>
+      <c r="B593">
+        <v>0.88954683552895697</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>104</v>
+      </c>
+      <c r="B597" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>105</v>
+      </c>
+      <c r="B598" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>106</v>
+      </c>
+      <c r="B599">
+        <v>2461475.4884259198</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>107</v>
+      </c>
+      <c r="B600">
+        <v>2461475.6782407402</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>108</v>
+      </c>
+      <c r="B601" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>109</v>
+      </c>
+      <c r="B602">
+        <v>2461475.6782407402</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>110</v>
+      </c>
+      <c r="B603">
+        <v>2461475.6782407402</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>111</v>
+      </c>
+      <c r="B604">
+        <v>0.189814814832061</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>112</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>113</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>114</v>
+      </c>
+      <c r="B607">
+        <v>0.189814814832061</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>115</v>
+      </c>
+      <c r="B608" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>104</v>
+      </c>
+      <c r="B612" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>105</v>
+      </c>
+      <c r="B613" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>106</v>
+      </c>
+      <c r="B614">
+        <v>2461558.1273148102</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>107</v>
+      </c>
+      <c r="B615">
+        <v>2461558.3009259198</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>108</v>
+      </c>
+      <c r="B616" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>109</v>
+      </c>
+      <c r="B617">
+        <v>2461558.3009259198</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>110</v>
+      </c>
+      <c r="B618">
+        <v>2461558.3009259198</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>111</v>
+      </c>
+      <c r="B619">
+        <v>0.17361111100762999</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>112</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>113</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>114</v>
+      </c>
+      <c r="B622">
+        <v>0.17361111100762999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>115</v>
+      </c>
+      <c r="B623" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>104</v>
+      </c>
+      <c r="B627" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>105</v>
+      </c>
+      <c r="B628" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>106</v>
+      </c>
+      <c r="B629">
+        <v>2461640.88425925</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>107</v>
+      </c>
+      <c r="B630">
+        <v>2461641.0370370299</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>108</v>
+      </c>
+      <c r="B631" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>109</v>
+      </c>
+      <c r="B632">
+        <v>2461641.0370370299</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>110</v>
+      </c>
+      <c r="B633">
+        <v>2461641.0370370299</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>111</v>
+      </c>
+      <c r="B634">
+        <v>0.15277777751907701</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>112</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>113</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>114</v>
+      </c>
+      <c r="B637">
+        <v>0.15277777751907701</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>115</v>
+      </c>
+      <c r="B638" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>104</v>
+      </c>
+      <c r="B642" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>105</v>
+      </c>
+      <c r="B643" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>106</v>
+      </c>
+      <c r="B644">
+        <v>2461723.8587962901</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>107</v>
+      </c>
+      <c r="B645">
+        <v>2461723.9861111101</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>108</v>
+      </c>
+      <c r="B646" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>109</v>
+      </c>
+      <c r="B647">
+        <v>2461723.9861111101</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>110</v>
+      </c>
+      <c r="B648">
+        <v>2461723.9861111101</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>111</v>
+      </c>
+      <c r="B649">
+        <v>0.127314814832061</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>112</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>113</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>114</v>
+      </c>
+      <c r="B652">
+        <v>0.127314814832061</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>115</v>
+      </c>
+      <c r="B653" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>104</v>
+      </c>
+      <c r="B657" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>105</v>
+      </c>
+      <c r="B658" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>106</v>
+      </c>
+      <c r="B659">
+        <v>2461807.0671296199</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>107</v>
+      </c>
+      <c r="B660">
+        <v>2461807.1689814799</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>108</v>
+      </c>
+      <c r="B661" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>109</v>
+      </c>
+      <c r="B662">
+        <v>2461807.1689814799</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>110</v>
+      </c>
+      <c r="B663">
+        <v>2461807.1689814799</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>111</v>
+      </c>
+      <c r="B664">
+        <v>0.101851851679384</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>112</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>113</v>
+      </c>
+      <c r="B666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>114</v>
+      </c>
+      <c r="B667">
+        <v>0.101851851679384</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>115</v>
+      </c>
+      <c r="B668" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>104</v>
+      </c>
+      <c r="B672" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>105</v>
+      </c>
+      <c r="B673" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>106</v>
+      </c>
+      <c r="B674">
+        <v>2461890.44907407</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>107</v>
+      </c>
+      <c r="B675">
+        <v>2461890.5277777701</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>108</v>
+      </c>
+      <c r="B676" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>109</v>
+      </c>
+      <c r="B677">
+        <v>2461890.5277777701</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>110</v>
+      </c>
+      <c r="B678">
+        <v>2461890.5277777701</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>111</v>
+      </c>
+      <c r="B679">
+        <v>7.8703703824430704E-2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>112</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>113</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>114</v>
+      </c>
+      <c r="B682">
+        <v>7.8703703824430704E-2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>115</v>
+      </c>
+      <c r="B683" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>104</v>
+      </c>
+      <c r="B687" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>105</v>
+      </c>
+      <c r="B688" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>106</v>
+      </c>
+      <c r="B689">
+        <v>2461973.9236111101</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>107</v>
+      </c>
+      <c r="B690">
+        <v>2461973.9861111101</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>108</v>
+      </c>
+      <c r="B691" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>109</v>
+      </c>
+      <c r="B692">
+        <v>2461973.9861111101</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>110</v>
+      </c>
+      <c r="B693">
+        <v>2461973.9861111101</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>111</v>
+      </c>
+      <c r="B694">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>112</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>113</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>114</v>
+      </c>
+      <c r="B697">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>115</v>
+      </c>
+      <c r="B698" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>104</v>
+      </c>
+      <c r="B702" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>105</v>
+      </c>
+      <c r="B703" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>106</v>
+      </c>
+      <c r="B704">
+        <v>2462057.4212962901</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>107</v>
+      </c>
+      <c r="B705">
+        <v>2462057.46759259</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>108</v>
+      </c>
+      <c r="B706" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>109</v>
+      </c>
+      <c r="B707">
+        <v>2462057.46759259</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>110</v>
+      </c>
+      <c r="B708">
+        <v>2462057.46759259</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>111</v>
+      </c>
+      <c r="B709">
+        <v>4.62962966412305E-2</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>112</v>
+      </c>
+      <c r="B710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>113</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>114</v>
+      </c>
+      <c r="B712">
+        <v>4.62962966412305E-2</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>115</v>
+      </c>
+      <c r="B713" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A40:B713" xr:uid="{297EEAD8-1435-4033-9511-E3E1B196AAA2}"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E359EDAB-6C8B-452C-B771-172741AC8B82}">
   <dimension ref="A1:AC50"/>
   <sheetViews>
@@ -9247,7 +16698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A68F03C-1AFE-4DC0-92F4-427F68573854}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/research/star_systems/TOI-4504.xlsx
+++ b/research/star_systems/TOI-4504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Python\curvesim\research\star_systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive.aspit.dk/personal/ulsc/Documents/Uli/Python/curvesim/research/star_systems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5A721C-7533-404B-985B-974CCA5621D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="6_{AB19F426-4D62-4575-B840-23CCA45A660D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D688C163-6BA9-4F8F-A233-0B1951F1EDB8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{6919DDE8-15F9-45FB-B5F7-4209377AF865}"/>
   </bookViews>
   <sheets>
     <sheet name="TOI 4504" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Luminosity" sheetId="3" r:id="rId3"/>
     <sheet name="Ark2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Planet c'!$A$40:$B$713</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>[TOI-4504]</t>
   </si>
@@ -2197,72 +2194,77 @@
     <t>Loesung: Verlet Integration!!!</t>
   </si>
   <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>Transits</t>
-  </si>
-  <si>
-    <t>[</t>
-  </si>
-  <si>
-    <t>transit_params</t>
-  </si>
-  <si>
-    <t>EclipsedBody</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
     <t>TT</t>
-  </si>
-  <si>
-    <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T12</t>
-  </si>
-  <si>
-    <t>T23</t>
-  </si>
-  <si>
-    <t>T34</t>
-  </si>
-  <si>
-    <t>T14</t>
   </si>
   <si>
     <t>b</t>
   </si>
   <si>
-    <t>null</t>
+    <t>P</t>
   </si>
   <si>
-    <t>P</t>
+    <t>frames</t>
+  </si>
+  <si>
+    <t>samplingrate</t>
+  </si>
+  <si>
+    <t>iterations</t>
+  </si>
+  <si>
+    <t>Planet d inklination</t>
+  </si>
+  <si>
+    <t>Planet B</t>
+  </si>
+  <si>
+    <t>entfernt</t>
+  </si>
+  <si>
+    <t>Impact at start</t>
+  </si>
+  <si>
+    <t>Impact at end</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>90.9</t>
+  </si>
+  <si>
+    <t>transits c</t>
+  </si>
+  <si>
+    <t>transits d</t>
+  </si>
+  <si>
+    <t>Impact max</t>
+  </si>
+  <si>
+    <t>Realtime (days)</t>
+  </si>
+  <si>
+    <t>Realtime (years)</t>
+  </si>
+  <si>
+    <t>Siehe Screenshot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
     <numFmt numFmtId="165" formatCode="#,##0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000%"/>
     <numFmt numFmtId="168" formatCode="0.00000000"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2396,6 +2398,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2411,7 +2421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2419,12 +2429,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2489,10 +2509,26 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Komma" xfId="2" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Procent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2515,7 +2551,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2781,7 +2817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1934118175"/>
@@ -2840,7 +2876,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1934120575"/>
@@ -2882,7 +2918,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2919,7 +2955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2933,7 +2969,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2995,7 +3031,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3065,7 +3101,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
+                  <a:endParaRPr lang="da-DK"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3315,7 +3351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="676860320"/>
@@ -3374,7 +3410,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="676869440"/>
@@ -3422,7 +3458,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3436,7 +3472,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3498,7 +3534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3624,7 +3660,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="871047440"/>
@@ -3683,7 +3719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="871048880"/>
@@ -3731,7 +3767,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3745,7 +3781,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3782,7 +3818,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3997,7 +4033,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1504414719"/>
@@ -4056,7 +4092,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1504412799"/>
@@ -4104,7 +4140,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4118,7 +4154,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4155,7 +4191,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="da-DK"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4367,7 +4403,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2034349823"/>
@@ -4426,7 +4462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1498935295"/>
@@ -4474,7 +4510,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="da-DK"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7626,6 +7662,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>746760</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Billede 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E19E2E1-EA3E-EE36-0EB2-D311FB73AFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68580" y="9547861"/>
+          <a:ext cx="18531840" cy="2158268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8241,7 +8321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8563,17 +8643,17 @@
       <selection activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="6" width="12.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="K1" s="4" t="s">
         <v>14</v>
@@ -8591,7 +8671,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8606,12 +8686,12 @@
         <v>1.5233337134996349E+18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -8626,7 +8706,7 @@
         <v>1.6057013262380642E+16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -8641,12 +8721,12 @@
         <v>127801893198931.94</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -8658,22 +8738,22 @@
         <v>1.289349655106091E+18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8695,12 +8775,12 @@
         <v>812</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -8722,7 +8802,7 @@
         <v>13598</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N19">
         <v>98.572999999999993</v>
       </c>
@@ -8730,7 +8810,7 @@
         <v>99.914100000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N20">
         <f>100-N19</f>
         <v>1.4270000000000067</v>
@@ -8740,7 +8820,7 @@
         <v>8.5899999999995202E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N21">
         <f>N20*10000</f>
         <v>14270.000000000067</v>
@@ -8750,12 +8830,12 @@
         <v>858.99999999995202</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -8763,7 +8843,7 @@
         <v>2.4261400000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -8771,7 +8851,7 @@
         <v>2459038.4580000001</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -8779,7 +8859,7 @@
         <v>2458400</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -8788,7 +8868,7 @@
         <v>638.45800000010058</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>72</v>
       </c>
@@ -8797,7 +8877,7 @@
         <v>263.15793812397493</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>73</v>
       </c>
@@ -8809,7 +8889,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -8825,47 +8905,47 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="22" t="s">
         <v>84</v>
       </c>
@@ -8879,7 +8959,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="22">
         <v>120</v>
       </c>
@@ -8897,7 +8977,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="22">
         <v>60</v>
       </c>
@@ -8912,7 +8992,7 @@
         <v>4.0731070496080802E-4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="22">
         <v>20</v>
       </c>
@@ -8927,7 +9007,7 @@
         <v>2.0365535248047649E-4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <v>10</v>
       </c>
@@ -8942,7 +9022,7 @@
         <v>1.5404699738911552E-4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="16">
         <v>5</v>
       </c>
@@ -8957,7 +9037,7 @@
         <v>1.2793733681467688E-4</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="16">
         <v>1</v>
       </c>
@@ -8972,7 +9052,7 @@
         <v>1.0704960835512597E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="22">
         <v>0.1</v>
       </c>
@@ -8987,7 +9067,7 @@
         <v>1.0182767624023824E-4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="18" t="s">
         <v>85</v>
       </c>
@@ -8995,22 +9075,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B144" t="s">
         <v>91</v>
       </c>
@@ -9018,12 +9098,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>0.38275274869999998</v>
       </c>
@@ -9043,7 +9123,7 @@
         <v>1.46467459193107E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2.4622032656334301</v>
       </c>
@@ -9055,7 +9135,7 @@
         <v>3.2656334298941658E-6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2.4622009289450899</v>
       </c>
@@ -9067,7 +9147,7 @@
         <v>9.2894508973984102E-7</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2.46220108354464</v>
       </c>
@@ -9079,7 +9159,7 @@
         <v>1.0835446397905457E-6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2.4622030048631101</v>
       </c>
@@ -9091,7 +9171,7 @@
         <v>3.0048631098900103E-6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2.4622054384090002</v>
       </c>
@@ -9103,7 +9183,7 @@
         <v>5.4384090000247909E-6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2.4622075147926799</v>
       </c>
@@ -9115,7 +9195,7 @@
         <v>7.514792679685911E-6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2.4622088158503099</v>
       </c>
@@ -9127,7 +9207,7 @@
         <v>8.8158503097623964E-6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2.4622091716155401</v>
       </c>
@@ -9139,7 +9219,7 @@
         <v>9.1716155399268473E-6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2.4622085341252302</v>
       </c>
@@ -9151,7 +9231,7 @@
         <v>8.5341252300530357E-6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2.4622070016339399</v>
       </c>
@@ -9163,7 +9243,7 @@
         <v>7.0016339397405147E-6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2.4622050034813499</v>
       </c>
@@ -9175,7 +9255,7 @@
         <v>5.0034813496857566E-6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2.46220349147915</v>
       </c>
@@ -9187,7 +9267,7 @@
         <v>3.4914791497975273E-6</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2.4622036973014398</v>
       </c>
@@ -9199,7 +9279,7 @@
         <v>3.6973014396757264E-6</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2.4622059771791101</v>
       </c>
@@ -9211,7 +9291,7 @@
         <v>5.9771791098839344E-6</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2.4622085532173501</v>
       </c>
@@ -9223,7 +9303,7 @@
         <v>8.5532173499380804E-6</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2.4622086836025101</v>
       </c>
@@ -9235,7 +9315,7 @@
         <v>8.6836025099401581E-6</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2.46220601163804</v>
       </c>
@@ -9247,7 +9327,7 @@
         <v>6.0116380398156366E-6</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2.46220304165035</v>
       </c>
@@ -9259,7 +9339,7 @@
         <v>3.0416503498109648E-6</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2.4622019943781099</v>
       </c>
@@ -9271,7 +9351,7 @@
         <v>1.9943781097708779E-6</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2.4622030472382899</v>
       </c>
@@ -9283,7 +9363,7 @@
         <v>3.0472382896995498E-6</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2.4622051748447098</v>
       </c>
@@ -9295,7 +9375,7 @@
         <v>5.1748447096322536E-6</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2.4622073252685301</v>
       </c>
@@ -9307,7 +9387,7 @@
         <v>7.3252685299785014E-6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2.4622088610194601</v>
       </c>
@@ -9319,7 +9399,7 @@
         <v>8.8610194599603176E-6</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2.4622094840742599</v>
       </c>
@@ -9331,7 +9411,7 @@
         <v>9.4840742597135375E-6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2.4622090752236501</v>
       </c>
@@ -9343,7 +9423,7 @@
         <v>9.0752236499014316E-6</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2.46220763027668</v>
       </c>
@@ -9355,7 +9435,7 @@
         <v>7.6302766798264088E-6</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2.4622053760103801</v>
       </c>
@@ -9367,7 +9447,7 @@
         <v>5.3760103799760373E-6</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2.4622030351310902</v>
       </c>
@@ -9379,7 +9459,7 @@
         <v>3.0351310900122996E-6</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2.4622019394300798</v>
       </c>
@@ -9391,7 +9471,7 @@
         <v>1.9394300796449215E-6</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2.4622032619081402</v>
       </c>
@@ -9403,7 +9483,7 @@
         <v>3.2619081400397931E-6</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2.4622062104754101</v>
       </c>
@@ -9415,7 +9495,7 @@
         <v>6.2104754099401305E-6</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2.4622077033854999</v>
       </c>
@@ -9427,7 +9507,7 @@
         <v>7.7033854997132778E-6</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2.4622006979770901</v>
       </c>
@@ -9439,7 +9519,7 @@
         <v>6.9797708990293472E-7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2.4622003799304299</v>
       </c>
@@ -9451,7 +9531,7 @@
         <v>3.7993042978357039E-7</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2.4622015845961802</v>
       </c>
@@ -9463,7 +9543,7 @@
         <v>1.5845961800486918E-6</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2.4622037010267301</v>
       </c>
@@ -9475,7 +9555,7 @@
         <v>3.7010267299741884E-6</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2.4622061862610201</v>
       </c>
@@ -9487,7 +9567,7 @@
         <v>6.1862610198915036E-6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2.4622085560113098</v>
       </c>
@@ -9499,7 +9579,7 @@
         <v>8.556011309668321E-6</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2.4622102701105102</v>
       </c>
@@ -9511,7 +9591,7 @@
         <v>1.0270110510024466E-5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2.4622107218019602</v>
       </c>
@@ -9523,7 +9603,7 @@
         <v>1.0721801960045241E-5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2.4622094598598698</v>
       </c>
@@ -9535,7 +9615,7 @@
         <v>9.4598598696649105E-6</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2.4622067911550398</v>
       </c>
@@ -9547,7 +9627,7 @@
         <v>6.7911550396537734E-6</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2.4622043166309502</v>
       </c>
@@ -9559,7 +9639,7 @@
         <v>4.3166309500186628E-6</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2.4622041615657499</v>
       </c>
@@ -9571,7 +9651,7 @@
         <v>4.1615657497828806E-6</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2.4622065005823899</v>
       </c>
@@ -9583,7 +9663,7 @@
         <v>6.500582389712406E-6</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2.4622085914015699</v>
       </c>
@@ -9595,7 +9675,7 @@
         <v>8.5914015697241553E-6</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2.4622079203836602</v>
       </c>
@@ -9607,7 +9687,7 @@
         <v>7.9203836600427735E-6</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2.46220511011779</v>
       </c>
@@ -9619,7 +9699,7 @@
         <v>5.1101177898082994E-6</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2.4622024521231598</v>
       </c>
@@ -9631,7 +9711,7 @@
         <v>2.4521231596352777E-6</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2.4622013494372301</v>
       </c>
@@ -9643,7 +9723,7 @@
         <v>1.3494372299582835E-6</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2.4622018830850698</v>
       </c>
@@ -9655,7 +9735,7 @@
         <v>1.8830850696538448E-6</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2.4622035394422701</v>
       </c>
@@ -9667,7 +9747,7 @@
         <v>3.539442269939741E-6</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2.4622057545930098</v>
       </c>
@@ -9679,7 +9759,7 @@
         <v>5.7545930096658537E-6</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2.4622080475091899</v>
       </c>
@@ -9691,7 +9771,7 @@
         <v>8.0475091897014295E-6</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2.4622099478728998</v>
       </c>
@@ -9703,7 +9783,7 @@
         <v>9.9478728996515997E-6</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2.46221088152378</v>
       </c>
@@ -9715,7 +9795,7 @@
         <v>1.0881523779815439E-5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2.4622102174907901</v>
       </c>
@@ -9727,7 +9807,7 @@
         <v>1.0217490789887762E-5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2.4622077047824802</v>
       </c>
@@ -9739,7 +9819,7 @@
         <v>7.7047824800224873E-6</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2.4622042970731801</v>
       </c>
@@ -9751,7 +9831,7 @@
         <v>4.2970731799485407E-6</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="16" t="s">
         <v>94</v>
       </c>
@@ -9760,7 +9840,7 @@
         <v>5.7688469806863088E-6</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="16" t="s">
         <v>95</v>
       </c>
@@ -9769,7 +9849,7 @@
         <v>1.0881523779815439E-5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="16" t="s">
         <v>82</v>
       </c>
@@ -9778,7 +9858,7 @@
         <v>3.7993042978357039E-7</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="16" t="s">
         <v>96</v>
       </c>
@@ -9791,7 +9871,7 @@
         <v>2.076463275288149E-6</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="16" t="s">
         <v>97</v>
       </c>
@@ -9800,18 +9880,18 @@
         <v>4.7327463693455594E-6</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
         <v>98</v>
       </c>
       <c r="B216" s="25"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2458401.40555555</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2458484.0277777701</v>
       </c>
@@ -9820,7 +9900,7 @@
         <v>82.622222220059484</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2458566.74027777</v>
       </c>
@@ -9829,7 +9909,7 @@
         <v>82.712499999906868</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2458649.6722222199</v>
       </c>
@@ -9838,7 +9918,7 @@
         <v>82.931944449897856</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2458732.86527777</v>
       </c>
@@ -9847,7 +9927,7 @@
         <v>83.193055550102144</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2458816.26944444</v>
       </c>
@@ -9856,7 +9936,7 @@
         <v>83.404166670050472</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2458899.7777777701</v>
       </c>
@@ -9865,7 +9945,7 @@
         <v>83.50833333004266</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2458983.2888888801</v>
       </c>
@@ -9874,7 +9954,7 @@
         <v>83.511111109983176</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2459066.7236111099</v>
       </c>
@@ -9883,7 +9963,7 @@
         <v>83.434722229838371</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2459150.02222222</v>
       </c>
@@ -9892,7 +9972,7 @@
         <v>83.298611110076308</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2459233.1486111102</v>
       </c>
@@ -9901,7 +9981,7 @@
         <v>83.126388890203089</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2459316.0888888799</v>
       </c>
@@ -9918,26 +9998,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{297EEAD8-1435-4033-9511-E3E1B196AAA2}">
-  <dimension ref="A1:C713"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2458401.40509259</v>
       </c>
@@ -9945,7 +10029,7 @@
         <v>0.43659568518123498</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2458484.0277777701</v>
       </c>
@@ -9957,7 +10041,7 @@
         <v>82.622685180045664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2458566.7407407402</v>
       </c>
@@ -9969,7 +10053,7 @@
         <v>82.712962970137596</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2458649.6712962901</v>
       </c>
@@ -9981,7 +10065,7 @@
         <v>82.93055554991588</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2458732.8657407402</v>
       </c>
@@ -9993,7 +10077,7 @@
         <v>83.19444445008412</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2458816.2685185098</v>
       </c>
@@ -10005,7 +10089,7 @@
         <v>83.402777769602835</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2458899.7777777701</v>
       </c>
@@ -10017,7 +10101,7 @@
         <v>83.509259260259569</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2458983.29166666</v>
       </c>
@@ -10029,7 +10113,7 @@
         <v>83.513888889923692</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2459066.7268518498</v>
       </c>
@@ -10041,7 +10125,7 @@
         <v>83.435185189824551</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2459150.0277777701</v>
       </c>
@@ -10053,7 +10137,7 @@
         <v>83.300925920251757</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2459233.1574074002</v>
       </c>
@@ -10065,7 +10149,7 @@
         <v>83.129629630129784</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2459316.0995370299</v>
       </c>
@@ -10077,7 +10161,7 @@
         <v>82.942129629664123</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2459398.8773148102</v>
       </c>
@@ -10089,7 +10173,7 @@
         <v>82.777777780313045</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2459481.5509259198</v>
       </c>
@@ -10101,7 +10185,7 @@
         <v>82.673611109610647</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2459564.2152777701</v>
       </c>
@@ -10113,7 +10197,7 @@
         <v>82.664351850282401</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2459646.9745370299</v>
       </c>
@@ -10125,7 +10209,7 @@
         <v>82.759259259793907</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2459729.93518518</v>
       </c>
@@ -10137,7 +10221,7 @@
         <v>82.96064815018326</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2459813.1712962901</v>
       </c>
@@ -10149,7 +10233,7 @@
         <v>83.236111110076308</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2459896.6689814799</v>
       </c>
@@ -10161,7 +10245,7 @@
         <v>83.497685189824551</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2459980.2893518498</v>
       </c>
@@ -10173,7 +10257,7 @@
         <v>83.620370369870216</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2460063.8495370299</v>
       </c>
@@ -10185,7 +10269,7 @@
         <v>83.560185180045664</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2460147.21759259</v>
       </c>
@@ -10197,7 +10281,7 @@
         <v>83.368055560160428</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2460230.3333333302</v>
       </c>
@@ -10209,7 +10293,7 @@
         <v>83.115740740206093</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2460313.2083333302</v>
       </c>
@@ -10221,7 +10305,7 @@
         <v>82.875</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2460395.9004629599</v>
       </c>
@@ -10233,7 +10317,7 @@
         <v>82.692129629664123</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2460478.4953703699</v>
       </c>
@@ -10245,7 +10329,7 @@
         <v>82.594907409977168</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2460561.0763888801</v>
       </c>
@@ -10257,7 +10341,7 @@
         <v>82.581018510274589</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2460643.7384259198</v>
       </c>
@@ -10269,7 +10353,7 @@
         <v>82.662037039641291</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2460726.56018518</v>
       </c>
@@ -10281,7 +10365,7 @@
         <v>82.821759260259569</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2460809.6018518498</v>
       </c>
@@ -10293,7 +10377,7 @@
         <v>83.041666669771075</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2460892.8819444398</v>
       </c>
@@ -10305,7 +10389,7 @@
         <v>83.280092590022832</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2460976.3680555499</v>
       </c>
@@ -10317,7 +10401,7 @@
         <v>83.486111110076308</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2461059.9652777701</v>
       </c>
@@ -10329,7 +10413,7 @@
         <v>83.597222220152617</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2461143.54166666</v>
       </c>
@@ -10341,7 +10425,7 @@
         <v>83.576388889923692</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2461226.9444444398</v>
       </c>
@@ -10353,7 +10437,7 @@
         <v>83.402777779847383</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2461310.07407407</v>
       </c>
@@ -10365,7 +10449,7 @@
         <v>83.129629630129784</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2461392.9212962901</v>
       </c>
@@ -10377,5001 +10461,407 @@
         <v>82.847222220152617</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M39" s="34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="28">
+        <f>B41/365.25</f>
+        <v>12.675235125611581</v>
+      </c>
+      <c r="L40" s="30"/>
+      <c r="M40" s="28">
+        <f>M41/365.25</f>
+        <v>126.75235125611582</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="28">
+        <f>B43*B45/(60*60*24)</f>
+        <v>4629.6296296296296</v>
+      </c>
+      <c r="L41" s="30"/>
+      <c r="M41" s="28">
+        <f>M43*M45/(60*60*24)</f>
+        <v>46296.296296296299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B42" s="29">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="29">
+        <v>100</v>
+      </c>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="29">
+        <v>200</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="29">
+        <v>200</v>
+      </c>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>104</v>
       </c>
-      <c r="B42" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B44" s="29">
+        <v>20000</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="29">
+        <v>200000</v>
+      </c>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
-      <c r="B43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B45" s="29">
+        <f>B42*B44</f>
+        <v>2000000</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="29">
+        <f>M42*M44</f>
+        <v>20000000</v>
+      </c>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>106</v>
       </c>
-      <c r="B44">
-        <v>2458401.2523148102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45">
-        <v>2458401.2893518498</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46">
-        <v>2458401.40509259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="16">
+        <v>84.74</v>
+      </c>
+      <c r="C47" s="16">
+        <v>88</v>
+      </c>
+      <c r="D47" s="16">
+        <v>89.69</v>
+      </c>
+      <c r="E47" s="16">
+        <v>90</v>
+      </c>
+      <c r="F47" s="16">
+        <v>90.7</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" s="16">
+        <v>91</v>
+      </c>
+      <c r="I47">
+        <v>91.2</v>
+      </c>
+      <c r="J47" s="16">
+        <v>91.4</v>
+      </c>
+      <c r="K47" s="32">
+        <v>91.5</v>
+      </c>
+      <c r="L47" s="31">
+        <v>93</v>
+      </c>
+      <c r="M47" s="32">
+        <v>91.5</v>
+      </c>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
-      <c r="B47">
-        <v>2458401.5254629599</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B48" s="16">
+        <v>0.43659999999999999</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0.43630000000000002</v>
+      </c>
+      <c r="D48" s="16">
+        <v>0.43619999999999998</v>
+      </c>
+      <c r="E48" s="16">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="F48" s="16">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="G48" s="16">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="H48" s="16">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="I48" s="16">
+        <v>0.436</v>
+      </c>
+      <c r="J48" s="16">
+        <v>0.436</v>
+      </c>
+      <c r="K48" s="16">
+        <v>0.436</v>
+      </c>
+      <c r="L48" s="31">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="M48" s="16">
+        <v>0.436</v>
+      </c>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="H49" s="16"/>
+      <c r="I49">
+        <v>0.51</v>
+      </c>
+      <c r="J49">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0.50280000000000002</v>
+      </c>
+      <c r="L49" s="31"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>110</v>
       </c>
-      <c r="B48">
-        <v>2458401.5625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B49">
-        <v>3.7037036847323103E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50">
-        <v>0.236111111473292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0.66</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0.49</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0.4597</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0.443</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0.37630000000000002</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0.35970000000000002</v>
+      </c>
+      <c r="L50" s="31">
+        <v>0.11</v>
+      </c>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
-      <c r="B51">
-        <v>3.7037036847323103E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="16">
+        <v>44</v>
+      </c>
+      <c r="C51" s="16">
+        <v>51</v>
+      </c>
+      <c r="D51" s="16">
+        <v>56</v>
+      </c>
+      <c r="E51" s="16">
+        <v>56</v>
+      </c>
+      <c r="F51" s="16">
+        <v>56</v>
+      </c>
+      <c r="G51" s="16">
+        <v>56</v>
+      </c>
+      <c r="H51" s="16">
+        <v>56</v>
+      </c>
+      <c r="I51" s="16">
+        <v>56</v>
+      </c>
+      <c r="J51" s="16">
+        <v>56</v>
+      </c>
+      <c r="K51" s="16">
+        <v>56</v>
+      </c>
+      <c r="L51" s="31">
+        <v>56</v>
+      </c>
+      <c r="M51" s="33">
+        <v>558</v>
+      </c>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>114</v>
       </c>
-      <c r="B52">
-        <v>0.31018518516793803</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B52" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16">
         <v>115</v>
       </c>
-      <c r="B53">
-        <v>0.43659568518123498</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59">
-        <v>2458483.875</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60">
-        <v>2458483.9143518498</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61">
-        <v>2458484.0277777701</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62">
-        <v>2458484.1458333302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63">
-        <v>2458484.1828703699</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B64">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65">
-        <v>0.231481481809169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="B66">
-        <v>3.7037036847323103E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67">
-        <v>0.307870370335876</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>115</v>
-      </c>
-      <c r="B68">
-        <v>0.45424996553354902</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74">
-        <v>2458566.5902777701</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>107</v>
-      </c>
-      <c r="B75">
-        <v>2458566.6296296199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76">
-        <v>2458566.7407407402</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>109</v>
-      </c>
-      <c r="B77">
-        <v>2458566.8564814799</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78">
-        <v>2458566.8935185098</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>111</v>
-      </c>
-      <c r="B79">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B80">
-        <v>0.22685185167938399</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>113</v>
-      </c>
-      <c r="B81">
-        <v>3.7037037312984397E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>114</v>
-      </c>
-      <c r="B82">
-        <v>0.303240740671753</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83">
-        <v>0.477755594582495</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-      <c r="B89">
-        <v>2458649.5231481399</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90">
-        <v>2458649.5625</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91">
-        <v>2458649.6712962901</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92">
-        <v>2458649.7847222202</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93">
-        <v>2458649.82175925</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95">
-        <v>0.22222222201526101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96">
-        <v>3.7037037312984397E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>114</v>
-      </c>
-      <c r="B97">
-        <v>0.29861111100762999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98">
-        <v>0.50163465076511005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104">
-        <v>2458732.71759259</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105">
-        <v>2458732.7569444398</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106">
-        <v>2458732.8657407402</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107">
-        <v>2458732.9745370299</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108">
-        <v>2458733.0138888801</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110">
-        <v>0.21759259235113801</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111">
-        <v>3.9351852145045899E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112">
-        <v>0.29629629617556902</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113">
-        <v>0.51754991263890304</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>104</v>
-      </c>
-      <c r="B117" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>105</v>
-      </c>
-      <c r="B118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>106</v>
-      </c>
-      <c r="B119">
-        <v>2458816.1203703699</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>107</v>
-      </c>
-      <c r="B120">
-        <v>2458816.1597222202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>108</v>
-      </c>
-      <c r="B121">
-        <v>2458816.2685185098</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>109</v>
-      </c>
-      <c r="B122">
-        <v>2458816.3796296199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>110</v>
-      </c>
-      <c r="B123">
-        <v>2458816.41666666</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>111</v>
-      </c>
-      <c r="B124">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>112</v>
-      </c>
-      <c r="B125">
-        <v>0.21990740764886099</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>113</v>
-      </c>
-      <c r="B126">
-        <v>3.7037036847323103E-2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>114</v>
-      </c>
-      <c r="B127">
-        <v>0.29629629617556902</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>115</v>
-      </c>
-      <c r="B128">
-        <v>0.52175763375461903</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>104</v>
-      </c>
-      <c r="B132" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>105</v>
-      </c>
-      <c r="B133" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>106</v>
-      </c>
-      <c r="B134">
-        <v>2458899.6296296199</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>107</v>
-      </c>
-      <c r="B135">
-        <v>2458899.6689814799</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>108</v>
-      </c>
-      <c r="B136">
-        <v>2458899.7777777701</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>109</v>
-      </c>
-      <c r="B137">
-        <v>2458899.8888888801</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>110</v>
-      </c>
-      <c r="B138">
-        <v>2458899.9282407402</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>111</v>
-      </c>
-      <c r="B139">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>112</v>
-      </c>
-      <c r="B140">
-        <v>0.21990740764886099</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>113</v>
-      </c>
-      <c r="B141">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>114</v>
-      </c>
-      <c r="B142">
-        <v>0.29861111100762999</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>115</v>
-      </c>
-      <c r="B143">
-        <v>0.51812108121441403</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>104</v>
-      </c>
-      <c r="B147" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>105</v>
-      </c>
-      <c r="B148" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>106</v>
-      </c>
-      <c r="B149">
-        <v>2458983.1435185098</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>107</v>
-      </c>
-      <c r="B150">
-        <v>2458983.1805555499</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>108</v>
-      </c>
-      <c r="B151">
-        <v>2458983.29166666</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>109</v>
-      </c>
-      <c r="B152">
-        <v>2458983.4027777701</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>110</v>
-      </c>
-      <c r="B153">
-        <v>2458983.4421296199</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>111</v>
-      </c>
-      <c r="B154">
-        <v>3.7037036847323103E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>112</v>
-      </c>
-      <c r="B155">
-        <v>0.22222222248092199</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>113</v>
-      </c>
-      <c r="B156">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>114</v>
-      </c>
-      <c r="B157">
-        <v>0.29861111100762999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>115</v>
-      </c>
-      <c r="B158">
-        <v>0.51341353615017904</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>104</v>
-      </c>
-      <c r="B162" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>105</v>
-      </c>
-      <c r="B163" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>106</v>
-      </c>
-      <c r="B164">
-        <v>2459066.5787037001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>107</v>
-      </c>
-      <c r="B165">
-        <v>2459066.6180555499</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>108</v>
-      </c>
-      <c r="B166">
-        <v>2459066.7268518498</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>109</v>
-      </c>
-      <c r="B167">
-        <v>2459066.8379629599</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>110</v>
-      </c>
-      <c r="B168">
-        <v>2459066.8773148102</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>111</v>
-      </c>
-      <c r="B169">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>112</v>
-      </c>
-      <c r="B170">
-        <v>0.21990740764886099</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>113</v>
-      </c>
-      <c r="B171">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>114</v>
-      </c>
-      <c r="B172">
-        <v>0.29861111100762999</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>115</v>
-      </c>
-      <c r="B173">
-        <v>0.51338950942484796</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>104</v>
-      </c>
-      <c r="B177" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>105</v>
-      </c>
-      <c r="B178" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>106</v>
-      </c>
-      <c r="B179">
-        <v>2459149.8819444398</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>107</v>
-      </c>
-      <c r="B180">
-        <v>2459149.9212962901</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>108</v>
-      </c>
-      <c r="B181">
-        <v>2459150.0277777701</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>109</v>
-      </c>
-      <c r="B182">
-        <v>2459150.1388888801</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>110</v>
-      </c>
-      <c r="B183">
-        <v>2459150.1782407402</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>111</v>
-      </c>
-      <c r="B184">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
-        <v>112</v>
-      </c>
-      <c r="B185">
-        <v>0.21759259281679899</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
-        <v>113</v>
-      </c>
-      <c r="B186">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>114</v>
-      </c>
-      <c r="B187">
-        <v>0.29629629617556902</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
-        <v>115</v>
-      </c>
-      <c r="B188">
-        <v>0.52106483078074495</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>104</v>
-      </c>
-      <c r="B192" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
-        <v>105</v>
-      </c>
-      <c r="B193" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>106</v>
-      </c>
-      <c r="B194">
-        <v>2459233.01157407</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
-        <v>107</v>
-      </c>
-      <c r="B195">
-        <v>2459233.0509259198</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
-        <v>108</v>
-      </c>
-      <c r="B196">
-        <v>2459233.1574074002</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
-        <v>109</v>
-      </c>
-      <c r="B197">
-        <v>2459233.2662037001</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>110</v>
-      </c>
-      <c r="B198">
-        <v>2459233.3055555499</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
-        <v>111</v>
-      </c>
-      <c r="B199">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
-        <v>112</v>
-      </c>
-      <c r="B200">
-        <v>0.21527777798473799</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>113</v>
-      </c>
-      <c r="B201">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>114</v>
-      </c>
-      <c r="B202">
-        <v>0.29398148134350699</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
-        <v>115</v>
-      </c>
-      <c r="B203">
-        <v>0.53616812999583796</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>104</v>
-      </c>
-      <c r="B207" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
-        <v>105</v>
-      </c>
-      <c r="B208" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
-        <v>106</v>
-      </c>
-      <c r="B209">
-        <v>2459315.9560185098</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>107</v>
-      </c>
-      <c r="B210">
-        <v>2459315.9953703699</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
-        <v>108</v>
-      </c>
-      <c r="B211">
-        <v>2459316.0995370299</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
-        <v>109</v>
-      </c>
-      <c r="B212">
-        <v>2459316.2037037001</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
-        <v>110</v>
-      </c>
-      <c r="B213">
-        <v>2459316.2453703699</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
-        <v>111</v>
-      </c>
-      <c r="B214">
-        <v>3.9351851679384701E-2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>112</v>
-      </c>
-      <c r="B215">
-        <v>0.20833333348855301</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
-        <v>113</v>
-      </c>
-      <c r="B216">
-        <v>4.1666666511446203E-2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
-        <v>114</v>
-      </c>
-      <c r="B217">
-        <v>0.28935185167938399</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>115</v>
-      </c>
-      <c r="B218">
-        <v>0.55706488900031703</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
-        <v>104</v>
-      </c>
-      <c r="B222" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>105</v>
-      </c>
-      <c r="B223" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>106</v>
-      </c>
-      <c r="B224">
-        <v>2459398.7361111101</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>107</v>
-      </c>
-      <c r="B225">
-        <v>2459398.7754629599</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>108</v>
-      </c>
-      <c r="B226">
-        <v>2459398.8773148102</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>109</v>
-      </c>
-      <c r="B227">
-        <v>2459398.97916666</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
-        <v>110</v>
-      </c>
-      <c r="B228">
-        <v>2459399.0208333302</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>111</v>
-      </c>
-      <c r="B229">
-        <v>3.9351852145045899E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>112</v>
-      </c>
-      <c r="B230">
-        <v>0.203703703358769</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>113</v>
-      </c>
-      <c r="B231">
-        <v>4.1666666977107497E-2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>114</v>
-      </c>
-      <c r="B232">
-        <v>0.28472222248092199</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
-        <v>115</v>
-      </c>
-      <c r="B233">
-        <v>0.58129924857330495</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
-        <v>104</v>
-      </c>
-      <c r="B237" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
-        <v>105</v>
-      </c>
-      <c r="B238" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
-        <v>106</v>
-      </c>
-      <c r="B239">
-        <v>2459481.4120370299</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
-        <v>107</v>
-      </c>
-      <c r="B240">
-        <v>2459481.4537037001</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
-        <v>108</v>
-      </c>
-      <c r="B241">
-        <v>2459481.5509259198</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>109</v>
-      </c>
-      <c r="B242">
-        <v>2459481.6504629599</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
-        <v>110</v>
-      </c>
-      <c r="B243">
-        <v>2459481.6921296199</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>111</v>
-      </c>
-      <c r="B244">
-        <v>4.1666666977107497E-2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>112</v>
-      </c>
-      <c r="B245">
-        <v>0.19675925932824601</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>113</v>
-      </c>
-      <c r="B246">
-        <v>4.1666666511446203E-2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>114</v>
-      </c>
-      <c r="B247">
-        <v>0.28009259281679899</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
-        <v>115</v>
-      </c>
-      <c r="B248">
-        <v>0.60660523882450201</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>104</v>
-      </c>
-      <c r="B252" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
-        <v>105</v>
-      </c>
-      <c r="B253" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
-        <v>106</v>
-      </c>
-      <c r="B254">
-        <v>2459564.0787037001</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
-        <v>107</v>
-      </c>
-      <c r="B255">
-        <v>2459564.1203703699</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
-        <v>108</v>
-      </c>
-      <c r="B256">
-        <v>2459564.2152777701</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
-        <v>109</v>
-      </c>
-      <c r="B257">
-        <v>2459564.31018518</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
-        <v>110</v>
-      </c>
-      <c r="B258">
-        <v>2459564.35416666</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
-        <v>111</v>
-      </c>
-      <c r="B259">
-        <v>4.1666666511446203E-2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
-        <v>112</v>
-      </c>
-      <c r="B260">
-        <v>0.189814814832061</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
-        <v>113</v>
-      </c>
-      <c r="B261">
-        <v>4.3981481343507697E-2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
-        <v>114</v>
-      </c>
-      <c r="B262">
-        <v>0.27546296268701498</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>115</v>
-      </c>
-      <c r="B263">
-        <v>0.63120045187991902</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" t="s">
-        <v>104</v>
-      </c>
-      <c r="B267" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>105</v>
-      </c>
-      <c r="B268" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>106</v>
-      </c>
-      <c r="B269">
-        <v>2459646.8402777701</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>107</v>
-      </c>
-      <c r="B270">
-        <v>2459646.88425925</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>108</v>
-      </c>
-      <c r="B271">
-        <v>2459646.9745370299</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>109</v>
-      </c>
-      <c r="B272">
-        <v>2459647.0671296199</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>110</v>
-      </c>
-      <c r="B273">
-        <v>2459647.1111111101</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>111</v>
-      </c>
-      <c r="B274">
-        <v>4.3981481343507697E-2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>112</v>
-      </c>
-      <c r="B275">
-        <v>0.182870370335876</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>113</v>
-      </c>
-      <c r="B276">
-        <v>4.3981481343507697E-2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>114</v>
-      </c>
-      <c r="B277">
-        <v>0.27083333302289198</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>115</v>
-      </c>
-      <c r="B278">
-        <v>0.65301923479652901</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>104</v>
-      </c>
-      <c r="B282" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>105</v>
-      </c>
-      <c r="B283" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>106</v>
-      </c>
-      <c r="B284">
-        <v>2459729.8032407402</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>107</v>
-      </c>
-      <c r="B285">
-        <v>2459729.8495370299</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>108</v>
-      </c>
-      <c r="B286">
-        <v>2459729.93518518</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>109</v>
-      </c>
-      <c r="B287">
-        <v>2459730.0254629599</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>110</v>
-      </c>
-      <c r="B288">
-        <v>2459730.07175925</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>111</v>
-      </c>
-      <c r="B289">
-        <v>4.6296296175569199E-2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>112</v>
-      </c>
-      <c r="B290">
-        <v>0.175925926305353</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>113</v>
-      </c>
-      <c r="B291">
-        <v>4.6296296175569199E-2</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>114</v>
-      </c>
-      <c r="B292">
-        <v>0.26851851865649201</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>115</v>
-      </c>
-      <c r="B293">
-        <v>0.66952600455969702</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>104</v>
-      </c>
-      <c r="B297" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>105</v>
-      </c>
-      <c r="B298" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>106</v>
-      </c>
-      <c r="B299">
-        <v>2459813.0393518498</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>107</v>
-      </c>
-      <c r="B300">
-        <v>2459813.0856481399</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>108</v>
-      </c>
-      <c r="B301">
-        <v>2459813.1712962901</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>109</v>
-      </c>
-      <c r="B302">
-        <v>2459813.26157407</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>110</v>
-      </c>
-      <c r="B303">
-        <v>2459813.3078703699</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>111</v>
-      </c>
-      <c r="B304">
-        <v>4.62962966412305E-2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>112</v>
-      </c>
-      <c r="B305">
-        <v>0.17592592583969199</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>113</v>
-      </c>
-      <c r="B306">
-        <v>4.6296296175569199E-2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>114</v>
-      </c>
-      <c r="B307">
-        <v>0.26851851865649201</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>115</v>
-      </c>
-      <c r="B308">
-        <v>0.67879165548237197</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>104</v>
-      </c>
-      <c r="B312" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>105</v>
-      </c>
-      <c r="B313" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>106</v>
-      </c>
-      <c r="B314">
-        <v>2459896.5370370299</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>107</v>
-      </c>
-      <c r="B315">
-        <v>2459896.5833333302</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>108</v>
-      </c>
-      <c r="B316">
-        <v>2459896.6689814799</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" t="s">
-        <v>109</v>
-      </c>
-      <c r="B317">
-        <v>2459896.7569444398</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>110</v>
-      </c>
-      <c r="B318">
-        <v>2459896.8032407402</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" t="s">
-        <v>111</v>
-      </c>
-      <c r="B319">
-        <v>4.62962966412305E-2</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" t="s">
-        <v>112</v>
-      </c>
-      <c r="B320">
-        <v>0.17361111100762999</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" t="s">
-        <v>113</v>
-      </c>
-      <c r="B321">
-        <v>4.6296296175569199E-2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" t="s">
-        <v>114</v>
-      </c>
-      <c r="B322">
-        <v>0.26620370382442998</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" t="s">
-        <v>115</v>
-      </c>
-      <c r="B323">
-        <v>0.68607558266753799</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" t="s">
-        <v>104</v>
-      </c>
-      <c r="B327" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" t="s">
-        <v>105</v>
-      </c>
-      <c r="B328" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" t="s">
-        <v>106</v>
-      </c>
-      <c r="B329">
-        <v>2459980.1597222202</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" t="s">
-        <v>107</v>
-      </c>
-      <c r="B330">
-        <v>2459980.2060185098</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>108</v>
-      </c>
-      <c r="B331">
-        <v>2459980.2893518498</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" t="s">
-        <v>109</v>
-      </c>
-      <c r="B332">
-        <v>2459980.37268518</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>110</v>
-      </c>
-      <c r="B333">
-        <v>2459980.4212962901</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" t="s">
-        <v>111</v>
-      </c>
-      <c r="B334">
-        <v>4.62962966412305E-2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" t="s">
-        <v>112</v>
-      </c>
-      <c r="B335">
-        <v>0.16666666651144599</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" t="s">
-        <v>113</v>
-      </c>
-      <c r="B336">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" t="s">
-        <v>114</v>
-      </c>
-      <c r="B337">
-        <v>0.26157407416030698</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" t="s">
-        <v>115</v>
-      </c>
-      <c r="B338">
-        <v>0.69967970717342298</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" t="s">
-        <v>104</v>
-      </c>
-      <c r="B342" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" t="s">
-        <v>105</v>
-      </c>
-      <c r="B343" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" t="s">
-        <v>106</v>
-      </c>
-      <c r="B344">
-        <v>2460063.7222222202</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" t="s">
-        <v>107</v>
-      </c>
-      <c r="B345">
-        <v>2460063.7708333302</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" t="s">
-        <v>108</v>
-      </c>
-      <c r="B346">
-        <v>2460063.8495370299</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" t="s">
-        <v>109</v>
-      </c>
-      <c r="B347">
-        <v>2460063.9305555499</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" t="s">
-        <v>110</v>
-      </c>
-      <c r="B348">
-        <v>2460063.97916666</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" t="s">
-        <v>111</v>
-      </c>
-      <c r="B349">
-        <v>4.8611111473292098E-2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" t="s">
-        <v>112</v>
-      </c>
-      <c r="B350">
-        <v>0.15972222201526101</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" t="s">
-        <v>113</v>
-      </c>
-      <c r="B351">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" t="s">
-        <v>114</v>
-      </c>
-      <c r="B352">
-        <v>0.25694444449618398</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" t="s">
-        <v>115</v>
-      </c>
-      <c r="B353">
-        <v>0.71323476060920699</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" t="s">
-        <v>104</v>
-      </c>
-      <c r="B357" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" t="s">
-        <v>105</v>
-      </c>
-      <c r="B358" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" t="s">
-        <v>106</v>
-      </c>
-      <c r="B359">
-        <v>2460147.0902777701</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" t="s">
-        <v>107</v>
-      </c>
-      <c r="B360">
-        <v>2460147.1388888801</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" t="s">
-        <v>108</v>
-      </c>
-      <c r="B361">
-        <v>2460147.21759259</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" t="s">
-        <v>109</v>
-      </c>
-      <c r="B362">
-        <v>2460147.2962962901</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" t="s">
-        <v>110</v>
-      </c>
-      <c r="B363">
-        <v>2460147.3472222202</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" t="s">
-        <v>111</v>
-      </c>
-      <c r="B364">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" t="s">
-        <v>112</v>
-      </c>
-      <c r="B365">
-        <v>0.15740740718320001</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" t="s">
-        <v>113</v>
-      </c>
-      <c r="B366">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" t="s">
-        <v>114</v>
-      </c>
-      <c r="B367">
-        <v>0.25694444403052302</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" t="s">
-        <v>115</v>
-      </c>
-      <c r="B368">
-        <v>0.72173326554115702</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" t="s">
-        <v>104</v>
-      </c>
-      <c r="B372" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" t="s">
-        <v>105</v>
-      </c>
-      <c r="B373" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" t="s">
-        <v>106</v>
-      </c>
-      <c r="B374">
-        <v>2460230.2060185098</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" t="s">
-        <v>107</v>
-      </c>
-      <c r="B375">
-        <v>2460230.2569444398</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" t="s">
-        <v>108</v>
-      </c>
-      <c r="B376">
-        <v>2460230.3333333302</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" t="s">
-        <v>109</v>
-      </c>
-      <c r="B377">
-        <v>2460230.4120370299</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" t="s">
-        <v>110</v>
-      </c>
-      <c r="B378">
-        <v>2460230.4606481399</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" t="s">
-        <v>111</v>
-      </c>
-      <c r="B379">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" t="s">
-        <v>112</v>
-      </c>
-      <c r="B380">
-        <v>0.15509259235113801</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" t="s">
-        <v>113</v>
-      </c>
-      <c r="B381">
-        <v>4.8611111473292098E-2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" t="s">
-        <v>114</v>
-      </c>
-      <c r="B382">
-        <v>0.254629629664123</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" t="s">
-        <v>115</v>
-      </c>
-      <c r="B383">
-        <v>0.72463452168676601</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>104</v>
-      </c>
-      <c r="B387" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>105</v>
-      </c>
-      <c r="B388" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>106</v>
-      </c>
-      <c r="B389">
-        <v>2460313.0810185098</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>107</v>
-      </c>
-      <c r="B390">
-        <v>2460313.1319444398</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>108</v>
-      </c>
-      <c r="B391">
-        <v>2460313.2083333302</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>109</v>
-      </c>
-      <c r="B392">
-        <v>2460313.2870370299</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>110</v>
-      </c>
-      <c r="B393">
-        <v>2460313.3356481399</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" t="s">
-        <v>111</v>
-      </c>
-      <c r="B394">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" t="s">
-        <v>112</v>
-      </c>
-      <c r="B395">
-        <v>0.15509259235113801</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" t="s">
-        <v>113</v>
-      </c>
-      <c r="B396">
-        <v>4.8611111473292098E-2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" t="s">
-        <v>114</v>
-      </c>
-      <c r="B397">
-        <v>0.254629629664123</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" t="s">
-        <v>115</v>
-      </c>
-      <c r="B398">
-        <v>0.72455157175806095</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" t="s">
-        <v>104</v>
-      </c>
-      <c r="B402" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" t="s">
-        <v>105</v>
-      </c>
-      <c r="B403" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" t="s">
-        <v>106</v>
-      </c>
-      <c r="B404">
-        <v>2460395.7754629599</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" t="s">
-        <v>107</v>
-      </c>
-      <c r="B405">
-        <v>2460395.82407407</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" t="s">
-        <v>108</v>
-      </c>
-      <c r="B406">
-        <v>2460395.9004629599</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" t="s">
-        <v>109</v>
-      </c>
-      <c r="B407">
-        <v>2460395.9814814799</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" t="s">
-        <v>110</v>
-      </c>
-      <c r="B408">
-        <v>2460396.03009259</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" t="s">
-        <v>111</v>
-      </c>
-      <c r="B409">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" t="s">
-        <v>112</v>
-      </c>
-      <c r="B410">
-        <v>0.15740740718320001</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" t="s">
-        <v>113</v>
-      </c>
-      <c r="B411">
-        <v>4.8611111473292098E-2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" t="s">
-        <v>114</v>
-      </c>
-      <c r="B412">
-        <v>0.254629629664123</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" t="s">
-        <v>115</v>
-      </c>
-      <c r="B413">
-        <v>0.72430348625964802</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" t="s">
-        <v>104</v>
-      </c>
-      <c r="B417" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" t="s">
-        <v>105</v>
-      </c>
-      <c r="B418" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" t="s">
-        <v>106</v>
-      </c>
-      <c r="B419">
-        <v>2460478.3680555499</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" t="s">
-        <v>107</v>
-      </c>
-      <c r="B420">
-        <v>2460478.41666666</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A421" t="s">
-        <v>108</v>
-      </c>
-      <c r="B421">
-        <v>2460478.4953703699</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" t="s">
-        <v>109</v>
-      </c>
-      <c r="B422">
-        <v>2460478.57407407</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A423" t="s">
-        <v>110</v>
-      </c>
-      <c r="B423">
-        <v>2460478.62268518</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A424" t="s">
-        <v>111</v>
-      </c>
-      <c r="B424">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" t="s">
-        <v>112</v>
-      </c>
-      <c r="B425">
-        <v>0.15740740764886099</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A426" t="s">
-        <v>113</v>
-      </c>
-      <c r="B426">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>114</v>
-      </c>
-      <c r="B427">
-        <v>0.254629629664123</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" t="s">
-        <v>115</v>
-      </c>
-      <c r="B428">
-        <v>0.72559259523284703</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A432" t="s">
-        <v>104</v>
-      </c>
-      <c r="B432" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A433" t="s">
-        <v>105</v>
-      </c>
-      <c r="B433" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" t="s">
-        <v>106</v>
-      </c>
-      <c r="B434">
-        <v>2460560.9513888801</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A435" t="s">
-        <v>107</v>
-      </c>
-      <c r="B435">
-        <v>2460561</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A436" t="s">
-        <v>108</v>
-      </c>
-      <c r="B436">
-        <v>2460561.0763888801</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
-        <v>109</v>
-      </c>
-      <c r="B437">
-        <v>2460561.15509259</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A438" t="s">
-        <v>110</v>
-      </c>
-      <c r="B438">
-        <v>2460561.2037037001</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A439" t="s">
-        <v>111</v>
-      </c>
-      <c r="B439">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" t="s">
-        <v>112</v>
-      </c>
-      <c r="B440">
-        <v>0.15509259281679899</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A441" t="s">
-        <v>113</v>
-      </c>
-      <c r="B441">
-        <v>4.8611111007630797E-2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
-        <v>114</v>
-      </c>
-      <c r="B442">
-        <v>0.25231481483206097</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" t="s">
-        <v>115</v>
-      </c>
-      <c r="B443">
-        <v>0.72929932978108003</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A444" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A445" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A447" t="s">
-        <v>104</v>
-      </c>
-      <c r="B447" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A448" t="s">
-        <v>105</v>
-      </c>
-      <c r="B448" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
-        <v>106</v>
-      </c>
-      <c r="B449">
-        <v>2460643.6134259198</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>107</v>
-      </c>
-      <c r="B450">
-        <v>2460643.6643518498</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A451" t="s">
-        <v>108</v>
-      </c>
-      <c r="B451">
-        <v>2460643.7384259198</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" t="s">
-        <v>109</v>
-      </c>
-      <c r="B452">
-        <v>2460643.8148148102</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A453" t="s">
-        <v>110</v>
-      </c>
-      <c r="B453">
-        <v>2460643.8657407402</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A454" t="s">
-        <v>111</v>
-      </c>
-      <c r="B454">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" t="s">
-        <v>112</v>
-      </c>
-      <c r="B455">
-        <v>0.15046296315267599</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A456" t="s">
-        <v>113</v>
-      </c>
-      <c r="B456">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A457" t="s">
-        <v>114</v>
-      </c>
-      <c r="B457">
-        <v>0.25231481483206097</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" t="s">
-        <v>115</v>
-      </c>
-      <c r="B458">
-        <v>0.736240430640002</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A459" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A460" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A462" t="s">
-        <v>104</v>
-      </c>
-      <c r="B462" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A463" t="s">
-        <v>105</v>
-      </c>
-      <c r="B463" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" t="s">
-        <v>106</v>
-      </c>
-      <c r="B464">
-        <v>2460726.4375</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A465" t="s">
-        <v>107</v>
-      </c>
-      <c r="B465">
-        <v>2460726.4884259198</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A466" t="s">
-        <v>108</v>
-      </c>
-      <c r="B466">
-        <v>2460726.56018518</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" t="s">
-        <v>109</v>
-      </c>
-      <c r="B467">
-        <v>2460726.63425925</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A468" t="s">
-        <v>110</v>
-      </c>
-      <c r="B468">
-        <v>2460726.6875</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A469" t="s">
-        <v>111</v>
-      </c>
-      <c r="B469">
-        <v>5.0925925839692299E-2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" t="s">
-        <v>112</v>
-      </c>
-      <c r="B470">
-        <v>0.14583333348855301</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A471" t="s">
-        <v>113</v>
-      </c>
-      <c r="B471">
-        <v>5.32407406717538E-2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A472" t="s">
-        <v>114</v>
-      </c>
-      <c r="B472">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" t="s">
-        <v>115</v>
-      </c>
-      <c r="B473">
-        <v>0.74739268624307897</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A474" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A475" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>104</v>
-      </c>
-      <c r="B477" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A478" t="s">
-        <v>105</v>
-      </c>
-      <c r="B478" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>106</v>
-      </c>
-      <c r="B479">
-        <v>2460809.47916666</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>107</v>
-      </c>
-      <c r="B480">
-        <v>2460809.5347222202</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A481" t="s">
-        <v>108</v>
-      </c>
-      <c r="B481">
-        <v>2460809.6018518498</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>109</v>
-      </c>
-      <c r="B482">
-        <v>2460809.6736111101</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>110</v>
-      </c>
-      <c r="B483">
-        <v>2460809.7268518498</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>111</v>
-      </c>
-      <c r="B484">
-        <v>5.5555555503815399E-2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" t="s">
-        <v>112</v>
-      </c>
-      <c r="B485">
-        <v>0.13888888899236901</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A486" t="s">
-        <v>113</v>
-      </c>
-      <c r="B486">
-        <v>5.32407406717538E-2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A487" t="s">
-        <v>114</v>
-      </c>
-      <c r="B487">
-        <v>0.247685185167938</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" t="s">
-        <v>115</v>
-      </c>
-      <c r="B488">
-        <v>0.763889899227845</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A489" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A490" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A492" t="s">
-        <v>104</v>
-      </c>
-      <c r="B492" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A493" t="s">
-        <v>105</v>
-      </c>
-      <c r="B493" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" t="s">
-        <v>106</v>
-      </c>
-      <c r="B494">
-        <v>2460892.7638888801</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A495" t="s">
-        <v>107</v>
-      </c>
-      <c r="B495">
-        <v>2460892.8194444398</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>108</v>
-      </c>
-      <c r="B496">
-        <v>2460892.8819444398</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" t="s">
-        <v>109</v>
-      </c>
-      <c r="B497">
-        <v>2460892.94675925</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A498" t="s">
-        <v>110</v>
-      </c>
-      <c r="B498">
-        <v>2460893.0023148102</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A499" t="s">
-        <v>111</v>
-      </c>
-      <c r="B499">
-        <v>5.5555555503815399E-2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" t="s">
-        <v>112</v>
-      </c>
-      <c r="B500">
-        <v>0.127314814832061</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A501" t="s">
-        <v>113</v>
-      </c>
-      <c r="B501">
-        <v>5.5555555503815399E-2</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A502" t="s">
-        <v>114</v>
-      </c>
-      <c r="B502">
-        <v>0.23842592583969199</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A503" t="s">
-        <v>115</v>
-      </c>
-      <c r="B503">
-        <v>0.78593473835060801</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A504" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A505" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A506" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>104</v>
-      </c>
-      <c r="B507" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A508" t="s">
-        <v>105</v>
-      </c>
-      <c r="B508" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A509" t="s">
-        <v>106</v>
-      </c>
-      <c r="B509">
-        <v>2460976.2523148102</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A510" t="s">
-        <v>107</v>
-      </c>
-      <c r="B510">
-        <v>2460976.3125</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A511" t="s">
-        <v>108</v>
-      </c>
-      <c r="B511">
-        <v>2460976.3680555499</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A512" t="s">
-        <v>109</v>
-      </c>
-      <c r="B512">
-        <v>2460976.4236111101</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A513" t="s">
-        <v>110</v>
-      </c>
-      <c r="B513">
-        <v>2460976.4837962901</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A514" t="s">
-        <v>111</v>
-      </c>
-      <c r="B514">
-        <v>6.0185185167938401E-2</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A515" t="s">
-        <v>112</v>
-      </c>
-      <c r="B515">
-        <v>0.11111111100763001</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A516" t="s">
-        <v>113</v>
-      </c>
-      <c r="B516">
-        <v>6.0185185167938401E-2</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>114</v>
-      </c>
-      <c r="B517">
-        <v>0.23148148134350699</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>115</v>
-      </c>
-      <c r="B518">
-        <v>0.81138090220185299</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
-        <v>104</v>
-      </c>
-      <c r="B522" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A523" t="s">
-        <v>105</v>
-      </c>
-      <c r="B523" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A524" t="s">
-        <v>106</v>
-      </c>
-      <c r="B524">
-        <v>2461059.8564814799</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A525" t="s">
-        <v>107</v>
-      </c>
-      <c r="B525">
-        <v>2461059.9189814799</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A526" t="s">
-        <v>108</v>
-      </c>
-      <c r="B526">
-        <v>2461059.9652777701</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A527" t="s">
-        <v>109</v>
-      </c>
-      <c r="B527">
-        <v>2461060.0138888801</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A528" t="s">
-        <v>110</v>
-      </c>
-      <c r="B528">
-        <v>2461060.0787037001</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A529" t="s">
-        <v>111</v>
-      </c>
-      <c r="B529">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A530" t="s">
-        <v>112</v>
-      </c>
-      <c r="B530">
-        <v>9.4907407648861394E-2</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A531" t="s">
-        <v>113</v>
-      </c>
-      <c r="B531">
-        <v>6.4814814832061501E-2</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A532" t="s">
-        <v>114</v>
-      </c>
-      <c r="B532">
-        <v>0.22222222248092199</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A533" t="s">
-        <v>115</v>
-      </c>
-      <c r="B533">
-        <v>0.83534756619893302</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A534" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A535" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A536" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A537" t="s">
-        <v>104</v>
-      </c>
-      <c r="B537" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A538" t="s">
-        <v>105</v>
-      </c>
-      <c r="B538" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A539" t="s">
-        <v>106</v>
-      </c>
-      <c r="B539">
-        <v>2461143.4328703699</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A540" t="s">
-        <v>107</v>
-      </c>
-      <c r="B540">
-        <v>2461143.5023148102</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A541" t="s">
-        <v>108</v>
-      </c>
-      <c r="B541">
-        <v>2461143.54166666</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A542" t="s">
-        <v>109</v>
-      </c>
-      <c r="B542">
-        <v>2461143.5810185098</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" t="s">
-        <v>110</v>
-      </c>
-      <c r="B543">
-        <v>2461143.6504629599</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" t="s">
-        <v>111</v>
-      </c>
-      <c r="B544">
-        <v>6.9444444496184504E-2</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" t="s">
-        <v>112</v>
-      </c>
-      <c r="B545">
-        <v>7.8703703824430704E-2</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" t="s">
-        <v>113</v>
-      </c>
-      <c r="B546">
-        <v>6.9444444496184504E-2</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" t="s">
-        <v>114</v>
-      </c>
-      <c r="B547">
-        <v>0.21759259281679899</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" t="s">
-        <v>115</v>
-      </c>
-      <c r="B548">
-        <v>0.85217419882479295</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" t="s">
-        <v>104</v>
-      </c>
-      <c r="B552" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" t="s">
-        <v>105</v>
-      </c>
-      <c r="B553" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" t="s">
-        <v>106</v>
-      </c>
-      <c r="B554">
-        <v>2461226.8402777701</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" t="s">
-        <v>107</v>
-      </c>
-      <c r="B555">
-        <v>2461226.9120370299</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" t="s">
-        <v>108</v>
-      </c>
-      <c r="B556">
-        <v>2461226.9444444398</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" t="s">
-        <v>109</v>
-      </c>
-      <c r="B557">
-        <v>2461226.9814814799</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" t="s">
-        <v>110</v>
-      </c>
-      <c r="B558">
-        <v>2461227.0532407402</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" t="s">
-        <v>111</v>
-      </c>
-      <c r="B559">
-        <v>7.1759258862584802E-2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" t="s">
-        <v>112</v>
-      </c>
-      <c r="B560">
-        <v>6.9444444496184504E-2</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" t="s">
-        <v>113</v>
-      </c>
-      <c r="B561">
-        <v>7.1759259328246103E-2</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" t="s">
-        <v>114</v>
-      </c>
-      <c r="B562">
-        <v>0.21296296268701501</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>115</v>
-      </c>
-      <c r="B563">
-        <v>0.86072078158769305</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
-        <v>104</v>
-      </c>
-      <c r="B567" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
-        <v>105</v>
-      </c>
-      <c r="B568" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
-        <v>106</v>
-      </c>
-      <c r="B569">
-        <v>2461309.9699074002</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>107</v>
-      </c>
-      <c r="B570">
-        <v>2461310.0486111101</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>108</v>
-      </c>
-      <c r="B571">
-        <v>2461310.07407407</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>109</v>
-      </c>
-      <c r="B572">
-        <v>2461310.10416666</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>110</v>
-      </c>
-      <c r="B573">
-        <v>2461310.1805555499</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>111</v>
-      </c>
-      <c r="B574">
-        <v>7.8703703824430704E-2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>112</v>
-      </c>
-      <c r="B575">
-        <v>5.5555555503815399E-2</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>113</v>
-      </c>
-      <c r="B576">
-        <v>7.6388888992369106E-2</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" t="s">
-        <v>114</v>
-      </c>
-      <c r="B577">
-        <v>0.21064814832061499</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" t="s">
-        <v>115</v>
-      </c>
-      <c r="B578">
-        <v>0.87012547038594801</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" t="s">
-        <v>104</v>
-      </c>
-      <c r="B582" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" t="s">
-        <v>105</v>
-      </c>
-      <c r="B583" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A584" t="s">
-        <v>106</v>
-      </c>
-      <c r="B584">
-        <v>2461392.82175925</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" t="s">
-        <v>107</v>
-      </c>
-      <c r="B585">
-        <v>2461392.9212962901</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" t="s">
-        <v>108</v>
-      </c>
-      <c r="B586">
-        <v>2461392.9212962901</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" t="s">
-        <v>109</v>
-      </c>
-      <c r="B587">
-        <v>2461392.9236111101</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" t="s">
-        <v>110</v>
-      </c>
-      <c r="B588">
-        <v>2461393.0231481399</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>111</v>
-      </c>
-      <c r="B589">
-        <v>9.9537036847323096E-2</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
-        <v>112</v>
-      </c>
-      <c r="B590">
-        <v>2.3148148320615201E-3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
-        <v>113</v>
-      </c>
-      <c r="B591">
-        <v>9.9537037312984397E-2</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>114</v>
-      </c>
-      <c r="B592">
-        <v>0.20138888899236901</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
-        <v>115</v>
-      </c>
-      <c r="B593">
-        <v>0.88954683552895697</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>104</v>
-      </c>
-      <c r="B597" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" t="s">
-        <v>105</v>
-      </c>
-      <c r="B598" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" t="s">
-        <v>106</v>
-      </c>
-      <c r="B599">
-        <v>2461475.4884259198</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
-        <v>107</v>
-      </c>
-      <c r="B600">
-        <v>2461475.6782407402</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
-        <v>108</v>
-      </c>
-      <c r="B601" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
-        <v>109</v>
-      </c>
-      <c r="B602">
-        <v>2461475.6782407402</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
-        <v>110</v>
-      </c>
-      <c r="B603">
-        <v>2461475.6782407402</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
-        <v>111</v>
-      </c>
-      <c r="B604">
-        <v>0.189814814832061</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" t="s">
-        <v>112</v>
-      </c>
-      <c r="B605">
+      <c r="H52" s="16"/>
+      <c r="I52">
+        <v>26</v>
+      </c>
+      <c r="J52">
+        <v>8</v>
+      </c>
+      <c r="K52" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" t="s">
-        <v>113</v>
-      </c>
-      <c r="B606">
+      <c r="L52" s="31">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" t="s">
-        <v>114</v>
-      </c>
-      <c r="B607">
-        <v>0.189814814832061</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
-        <v>115</v>
-      </c>
-      <c r="B608" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>104</v>
-      </c>
-      <c r="B612" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" t="s">
-        <v>105</v>
-      </c>
-      <c r="B613" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" t="s">
-        <v>106</v>
-      </c>
-      <c r="B614">
-        <v>2461558.1273148102</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" t="s">
-        <v>107</v>
-      </c>
-      <c r="B615">
-        <v>2461558.3009259198</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" t="s">
-        <v>108</v>
-      </c>
-      <c r="B616" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
-        <v>109</v>
-      </c>
-      <c r="B617">
-        <v>2461558.3009259198</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
-        <v>110</v>
-      </c>
-      <c r="B618">
-        <v>2461558.3009259198</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
-        <v>111</v>
-      </c>
-      <c r="B619">
-        <v>0.17361111100762999</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
-        <v>112</v>
-      </c>
-      <c r="B620">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
-        <v>113</v>
-      </c>
-      <c r="B621">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A622" t="s">
-        <v>114</v>
-      </c>
-      <c r="B622">
-        <v>0.17361111100762999</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A623" t="s">
-        <v>115</v>
-      </c>
-      <c r="B623" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A624" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
-        <v>104</v>
-      </c>
-      <c r="B627" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>105</v>
-      </c>
-      <c r="B628" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>106</v>
-      </c>
-      <c r="B629">
-        <v>2461640.88425925</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>107</v>
-      </c>
-      <c r="B630">
-        <v>2461641.0370370299</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
-        <v>108</v>
-      </c>
-      <c r="B631" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
-        <v>109</v>
-      </c>
-      <c r="B632">
-        <v>2461641.0370370299</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>110</v>
-      </c>
-      <c r="B633">
-        <v>2461641.0370370299</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>111</v>
-      </c>
-      <c r="B634">
-        <v>0.15277777751907701</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>112</v>
-      </c>
-      <c r="B635">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>113</v>
-      </c>
-      <c r="B636">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>114</v>
-      </c>
-      <c r="B637">
-        <v>0.15277777751907701</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A638" t="s">
-        <v>115</v>
-      </c>
-      <c r="B638" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A639" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A640" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A641" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>104</v>
-      </c>
-      <c r="B642" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>105</v>
-      </c>
-      <c r="B643" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
-        <v>106</v>
-      </c>
-      <c r="B644">
-        <v>2461723.8587962901</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
-        <v>107</v>
-      </c>
-      <c r="B645">
-        <v>2461723.9861111101</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>108</v>
-      </c>
-      <c r="B646" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A647" t="s">
-        <v>109</v>
-      </c>
-      <c r="B647">
-        <v>2461723.9861111101</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A648" t="s">
-        <v>110</v>
-      </c>
-      <c r="B648">
-        <v>2461723.9861111101</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A649" t="s">
-        <v>111</v>
-      </c>
-      <c r="B649">
-        <v>0.127314814832061</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
-        <v>112</v>
-      </c>
-      <c r="B650">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
-        <v>113</v>
-      </c>
-      <c r="B651">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>114</v>
-      </c>
-      <c r="B652">
-        <v>0.127314814832061</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A653" t="s">
-        <v>115</v>
-      </c>
-      <c r="B653" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A654" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A655" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>104</v>
-      </c>
-      <c r="B657" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>105</v>
-      </c>
-      <c r="B658" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>106</v>
-      </c>
-      <c r="B659">
-        <v>2461807.0671296199</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>107</v>
-      </c>
-      <c r="B660">
-        <v>2461807.1689814799</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A661" t="s">
-        <v>108</v>
-      </c>
-      <c r="B661" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A662" t="s">
-        <v>109</v>
-      </c>
-      <c r="B662">
-        <v>2461807.1689814799</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A663" t="s">
-        <v>110</v>
-      </c>
-      <c r="B663">
-        <v>2461807.1689814799</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A664" t="s">
-        <v>111</v>
-      </c>
-      <c r="B664">
-        <v>0.101851851679384</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A665" t="s">
-        <v>112</v>
-      </c>
-      <c r="B665">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A666" t="s">
-        <v>113</v>
-      </c>
-      <c r="B666">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A667" t="s">
-        <v>114</v>
-      </c>
-      <c r="B667">
-        <v>0.101851851679384</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A668" t="s">
-        <v>115</v>
-      </c>
-      <c r="B668" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A669" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A670" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
-        <v>104</v>
-      </c>
-      <c r="B672" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A673" t="s">
-        <v>105</v>
-      </c>
-      <c r="B673" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A674" t="s">
-        <v>106</v>
-      </c>
-      <c r="B674">
-        <v>2461890.44907407</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A675" t="s">
-        <v>107</v>
-      </c>
-      <c r="B675">
-        <v>2461890.5277777701</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
-        <v>108</v>
-      </c>
-      <c r="B676" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A677" t="s">
-        <v>109</v>
-      </c>
-      <c r="B677">
-        <v>2461890.5277777701</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A678" t="s">
-        <v>110</v>
-      </c>
-      <c r="B678">
-        <v>2461890.5277777701</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A679" t="s">
-        <v>111</v>
-      </c>
-      <c r="B679">
-        <v>7.8703703824430704E-2</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A680" t="s">
-        <v>112</v>
-      </c>
-      <c r="B680">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A681" t="s">
-        <v>113</v>
-      </c>
-      <c r="B681">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A682" t="s">
-        <v>114</v>
-      </c>
-      <c r="B682">
-        <v>7.8703703824430704E-2</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A683" t="s">
-        <v>115</v>
-      </c>
-      <c r="B683" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A684" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A686" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A687" t="s">
-        <v>104</v>
-      </c>
-      <c r="B687" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A688" t="s">
-        <v>105</v>
-      </c>
-      <c r="B688" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>106</v>
-      </c>
-      <c r="B689">
-        <v>2461973.9236111101</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>107</v>
-      </c>
-      <c r="B690">
-        <v>2461973.9861111101</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
-        <v>108</v>
-      </c>
-      <c r="B691" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>109</v>
-      </c>
-      <c r="B692">
-        <v>2461973.9861111101</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>110</v>
-      </c>
-      <c r="B693">
-        <v>2461973.9861111101</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
-        <v>111</v>
-      </c>
-      <c r="B694">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A695" t="s">
-        <v>112</v>
-      </c>
-      <c r="B695">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A696" t="s">
-        <v>113</v>
-      </c>
-      <c r="B696">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A697" t="s">
-        <v>114</v>
-      </c>
-      <c r="B697">
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A698" t="s">
-        <v>115</v>
-      </c>
-      <c r="B698" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
-        <v>104</v>
-      </c>
-      <c r="B702" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
-        <v>105</v>
-      </c>
-      <c r="B703" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A704" t="s">
-        <v>106</v>
-      </c>
-      <c r="B704">
-        <v>2462057.4212962901</v>
-      </c>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A705" t="s">
-        <v>107</v>
-      </c>
-      <c r="B705">
-        <v>2462057.46759259</v>
-      </c>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A706" t="s">
-        <v>108</v>
-      </c>
-      <c r="B706" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>109</v>
-      </c>
-      <c r="B707">
-        <v>2462057.46759259</v>
-      </c>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>110</v>
-      </c>
-      <c r="B708">
-        <v>2462057.46759259</v>
-      </c>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
-        <v>111</v>
-      </c>
-      <c r="B709">
-        <v>4.62962966412305E-2</v>
-      </c>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>112</v>
-      </c>
-      <c r="B710">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>113</v>
-      </c>
-      <c r="B711">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
-        <v>114</v>
-      </c>
-      <c r="B712">
-        <v>4.62962966412305E-2</v>
-      </c>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
-        <v>115</v>
-      </c>
-      <c r="B713" t="s">
-        <v>116</v>
-      </c>
+      <c r="M52" s="33">
+        <v>632</v>
+      </c>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A40:B713" xr:uid="{297EEAD8-1435-4033-9511-E3E1B196AAA2}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -15385,14 +10875,14 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>40</v>
       </c>
@@ -15425,7 +10915,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>31</v>
       </c>
@@ -15458,7 +10948,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
@@ -15491,7 +10981,7 @@
       <c r="AB5" s="7"/>
       <c r="AC5" s="7"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -15524,7 +11014,7 @@
       <c r="AB6" s="7"/>
       <c r="AC6" s="7"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -15557,7 +11047,7 @@
       <c r="AB7" s="7"/>
       <c r="AC7" s="7"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -15590,7 +11080,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>36</v>
       </c>
@@ -15623,7 +11113,7 @@
       <c r="AB9" s="7"/>
       <c r="AC9" s="7"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
@@ -15656,7 +11146,7 @@
       <c r="AB10" s="7"/>
       <c r="AC10" s="7"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>38</v>
       </c>
@@ -15689,7 +11179,7 @@
       <c r="AB11" s="7"/>
       <c r="AC11" s="7"/>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>39</v>
       </c>
@@ -15722,7 +11212,7 @@
       <c r="AB12" s="7"/>
       <c r="AC12" s="7"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
@@ -15755,7 +11245,7 @@
       <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>42</v>
       </c>
@@ -15788,7 +11278,7 @@
       <c r="AB15" s="7"/>
       <c r="AC15" s="7"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
@@ -15821,7 +11311,7 @@
       <c r="AB16" s="7"/>
       <c r="AC16" s="7"/>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>44</v>
       </c>
@@ -15854,7 +11344,7 @@
       <c r="AB17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -15887,7 +11377,7 @@
       <c r="AB18" s="7"/>
       <c r="AC18" s="7"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
@@ -15920,7 +11410,7 @@
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -15953,7 +11443,7 @@
       <c r="AB20" s="7"/>
       <c r="AC20" s="7"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>48</v>
       </c>
@@ -15986,7 +11476,7 @@
       <c r="AB21" s="7"/>
       <c r="AC21" s="7"/>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>49</v>
       </c>
@@ -16019,7 +11509,7 @@
       <c r="AB22" s="7"/>
       <c r="AC22" s="7"/>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>50</v>
       </c>
@@ -16052,7 +11542,7 @@
       <c r="AB23" s="7"/>
       <c r="AC23" s="7"/>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>51</v>
       </c>
@@ -16085,7 +11575,7 @@
       <c r="AB24" s="7"/>
       <c r="AC24" s="7"/>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>52</v>
       </c>
@@ -16118,7 +11608,7 @@
       <c r="AB25" s="7"/>
       <c r="AC25" s="7"/>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>39</v>
       </c>
@@ -16151,7 +11641,7 @@
       <c r="AB26" s="7"/>
       <c r="AC26" s="7"/>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>17</v>
       </c>
@@ -16184,7 +11674,7 @@
       <c r="AB28" s="7"/>
       <c r="AC28" s="7"/>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>18</v>
       </c>
@@ -16217,7 +11707,7 @@
       <c r="AB29" s="7"/>
       <c r="AC29" s="7"/>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
@@ -16250,7 +11740,7 @@
       <c r="AB30" s="7"/>
       <c r="AC30" s="7"/>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>20</v>
       </c>
@@ -16283,7 +11773,7 @@
       <c r="AB31" s="7"/>
       <c r="AC31" s="7"/>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>21</v>
       </c>
@@ -16316,7 +11806,7 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>22</v>
       </c>
@@ -16349,7 +11839,7 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>23</v>
       </c>
@@ -16382,7 +11872,7 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>24</v>
       </c>
@@ -16415,7 +11905,7 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>25</v>
       </c>
@@ -16448,7 +11938,7 @@
       <c r="AB36" s="7"/>
       <c r="AC36" s="7"/>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>26</v>
       </c>
@@ -16481,7 +11971,7 @@
       <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>27</v>
       </c>
@@ -16514,7 +12004,7 @@
       <c r="AB38" s="7"/>
       <c r="AC38" s="7"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>28</v>
       </c>
@@ -16547,7 +12037,7 @@
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>29</v>
       </c>
@@ -16580,7 +12070,7 @@
       <c r="AB40" s="7"/>
       <c r="AC40" s="7"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>30</v>
       </c>
@@ -16613,12 +12103,12 @@
       <c r="AB41" s="7"/>
       <c r="AC41" s="7"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -16629,7 +12119,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -16642,7 +12132,7 @@
       <c r="D45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -16654,7 +12144,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -16672,7 +12162,7 @@
         <v>0.1740000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -16683,7 +12173,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -16704,7 +12194,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
